--- a/Temizlenmiş Üye Bilgi Liste/Temizlenmiş Üye Bilgi Liste - 13. komite.xlsx
+++ b/Temizlenmiş Üye Bilgi Liste/Temizlenmiş Üye Bilgi Liste - 13. komite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E445"/>
+  <dimension ref="A1:H445"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,21 @@
           <t>Tescilli Adresi</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Şirket Türü</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Meslek Grubu Numarası</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Meslek Grubu Adı</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -482,6 +497,21 @@
           <t xml:space="preserve"> MANAVKUYU MAH. FATİH SULTAN MEHMET CAD.  AKTUNA BLOK  NO: 80H BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -505,6 +535,21 @@
           <t>KELER MAHALLESİ DELİ ÖMER NO:26  MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -528,6 +573,21 @@
           <t>ARMUTLU 85.YIL CUMHURİYET MAHALLESİ İZMİR ANKARA CAD. NO: 79/1A  KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -551,6 +611,21 @@
           <t>KEMALPAŞA OSB MAHALLESİ 500 SK. NO:26 SELİN BLOK KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -574,6 +649,21 @@
           <t xml:space="preserve"> BAĞYURDU YENİ MAHALLESİ İZMİR ANKARA CAD.  NO: 642 /4  KEMALPAŞA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -597,6 +687,21 @@
           <t>MENDERES                  MAHALLESİ 373 SK. NO: 24 A/A BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -620,6 +725,21 @@
           <t>HALKAPINAR                MAHALLESİ 1558 SOKAK NO: 6  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -643,6 +763,21 @@
           <t xml:space="preserve"> KEMALPAŞA OSB  16  NO:NO:2 KEMALPAŞA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -666,6 +801,21 @@
           <t>EFELER                    MAHALLESİ 301 SK.  BARIŞ BLOK  NO: 40 BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -689,6 +839,21 @@
           <t xml:space="preserve"> KASIMPAŞA MAH. KUVA-İ MİLLİYE CAD. NO: 24A MENDERES / İZMİR  / </t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -712,6 +877,21 @@
           <t>FEVZİÇAKMAK               MAHALLESİ DEMİRCİ EFE SK. NO:53/A  BALÇOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -735,6 +915,21 @@
           <t>19 MAYIS MAHALLESİ 5420 SOKAK NO:13  YEŞİLDERE KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -758,6 +953,21 @@
           <t xml:space="preserve"> 11/2 SK. NO:18/A  ÜÇKUYULAR KARABAĞLAR/İZMİR  / </t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -781,6 +991,21 @@
           <t xml:space="preserve"> YALI   6470/2  NO:NO:1 KARŞIYAKA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -804,6 +1029,21 @@
           <t xml:space="preserve"> BALATÇIK MAH. 8788 SK. NO: 14B ÇİĞLİ / İZMİR  / </t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -827,6 +1067,21 @@
           <t xml:space="preserve"> GÜRPINAR MAH. 7056 SK. NO: 49 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -850,6 +1105,21 @@
           <t xml:space="preserve"> MUSTAFA KEMAL MAH. 694/25 SK. NO: 5A BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -873,6 +1143,21 @@
           <t xml:space="preserve"> NERGİZ MAH. 1828 SK. ALP SEYMEN NO: 20B KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -896,6 +1181,21 @@
           <t xml:space="preserve"> ŞEHİT HAKAN ALGIN         NO:NO: 5/C/ KARABURUN/İZMİR  / </t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -919,6 +1219,21 @@
           <t xml:space="preserve"> 544 SOKAK NO:6/A  YAĞHANELER KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -942,6 +1257,21 @@
           <t>EVKA-3                    MAHALLESİ 119/26 SOKAK NO:24/A  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -965,6 +1295,21 @@
           <t>ATIFBEY MAHALLESİ ABDÜLHAMİT YAVUZ CAD. NO:63/A  GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -988,6 +1333,21 @@
           <t>MANAVKUYU MAHALLESİ MUSTAFA KEMAL CAD. B BLOK  NO: 151B BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1011,6 +1371,21 @@
           <t xml:space="preserve"> ERGENE MAHALLESİ 555 SK. KAYA APT.  NO: 64 C  BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1034,6 +1409,21 @@
           <t xml:space="preserve"> ZAFER MAH. 2351 SK.  NO: 10A BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1057,6 +1447,21 @@
           <t xml:space="preserve"> GÖKSU MAH. 637/23 SK.  NO: 4A BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1080,6 +1485,21 @@
           <t>ALAÇATI MAHALLESİ 16006 SK. NO: 24Z  ÇEŞME           / İZMİR</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1103,6 +1523,21 @@
           <t>85. YIL CUMHURİYET MAHALLESİ SANAYİ CADDESİ NO:99  KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1126,6 +1561,21 @@
           <t xml:space="preserve"> NAZARKÖY MAH. 4051 SK.  NO: 3  İÇ KAPI NO: 1 KEMALPAŞA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1149,6 +1599,21 @@
           <t xml:space="preserve"> 850 SOK. NO:32/C  KONAK / İZMİR</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1172,6 +1637,21 @@
           <t>KILIÇ REİS                MAHALLESİ ŞÜKRÜ SARAÇOĞLU CADDESİ ŞENOL Apt.  NO: 26 /1A  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1195,6 +1675,21 @@
           <t xml:space="preserve"> 1600        NO:17/2 BAYRAKLI/İZMİR  / </t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1218,6 +1713,21 @@
           <t xml:space="preserve"> KEMALPAŞA OSB MAH. 37 SK. GIXOM TOBACCO BLOK  NO: 4 KEMALPAŞA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1241,6 +1751,21 @@
           <t>KARACAOĞLAN               MAHALLESİ 6166 SOKAK C-D BLOK  NO: 32D BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1264,6 +1789,21 @@
           <t xml:space="preserve"> İSMET KAPTAN MAHALLESİ ANAFARTALAR CAD.  NO: 789 B/789B  KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1287,6 +1827,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 2601 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1310,6 +1865,21 @@
           <t>BOSTANLI                  MAHALLESİ 1811 SK. NO:4/A ELİF HANIM Apt. KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1333,6 +1903,21 @@
           <t xml:space="preserve"> BOSTANLI MAH. 1820/1 SK. ŞÜKÜFE BAŞMAN NO: 1 İÇ KAPI NO: 1 KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1356,6 +1941,21 @@
           <t xml:space="preserve"> BOSTANLI MAH. İSMAİL SİVRİ SK. KETEN NO: 4A KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1379,6 +1979,21 @@
           <t xml:space="preserve"> GÖLCÜK MAH. 14005 SK. NO: 17A SEFERİHİSAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1402,6 +2017,21 @@
           <t xml:space="preserve"> AKDENİZ MAH. CUMHURİYET BUL. ÇIRPICI İŞ HANI NO: 77 İÇ KAPI NO: 42 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1425,6 +2055,21 @@
           <t>MANAVKUYU MAHALLESİ YÜZBAŞI İBRAHİM HAKKI  CAD.  SAMI BEY 2 SİTESİ  NO: 229/1C BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1448,6 +2093,21 @@
           <t xml:space="preserve"> FATİH MAH. 1197 SK. E BLOK  SİTESİ E BLOK NO: 7/3 GAZİEMİR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1471,6 +2131,21 @@
           <t xml:space="preserve"> FATİH MAH. 1197 SK. E BLOK  SİTESİ E BLOK NO: 7/3 GAZİEMİR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1494,6 +2169,21 @@
           <t xml:space="preserve"> 10003 SK NO:2 TEKELİ İTOB ORGANİZE SAN BÖLG. MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1517,6 +2207,21 @@
           <t xml:space="preserve"> ALAÇATI MAH. 15064 SK.  NO: 10E ÇEŞME / İZMİR  / </t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1540,6 +2245,21 @@
           <t xml:space="preserve"> HÜRRİYET MAH. NAMIK KEMAL CAD. NO: 101A BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1563,6 +2283,21 @@
           <t>GÖKDERE MAHALLESİ GÖKDERE CAD. NO: 12/3A BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1586,6 +2321,21 @@
           <t>GÖKDERE MAHALLESİ GÖKDERE CAD. NO:44/2  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1609,6 +2359,21 @@
           <t xml:space="preserve"> YENİDOĞAN MAH. GAZİLER CAD.  NO: 230/1 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1632,6 +2397,21 @@
           <t>ERZENE MAHALLESİ FEVZİ ÇAKMAK CAD. NO:1/B  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1655,6 +2435,21 @@
           <t>KAZIM DİRİK MAHALLESİ SANAYİ CAD. NO:31 İÇ KAPI NO: Z6  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1678,6 +2473,21 @@
           <t xml:space="preserve"> KEMALPAŞA OSB MAHALLESİ 9 SK.  NO: 7  KEMALPAŞA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1701,6 +2511,21 @@
           <t xml:space="preserve"> ALTINTEPE MAH. ŞEHİT MURAT CAD. NO: 42A MENDERES / İZMİR  / </t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1724,6 +2549,21 @@
           <t xml:space="preserve"> 10038 SOK. NO:3/3-A  A.O.S.B. ÇİĞLİ/İZMİR  / </t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1747,6 +2587,21 @@
           <t>GÖDENCE MAHALLESİ KURUÇEŞME  (KÜME EVELR ) NO:39  SEFERİHİSAR     / İZMİR</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1770,6 +2625,21 @@
           <t>ALAÇATI MAHALLESİ NO:65/A 14000 SOK. ÇEŞME           / İZMİR</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1793,6 +2663,21 @@
           <t xml:space="preserve"> BAHÇELİEVLER MAH. CEVDET BİLSAY CAD. ALBOYACI NO: 89A KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1816,6 +2701,21 @@
           <t xml:space="preserve"> KÜLTÜR MAHALLESİ TALATPAŞA BLV. GÖNÇ APT.  NO: 12 A/12A  KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1839,6 +2739,21 @@
           <t xml:space="preserve"> KEMALPAŞA MAH. PINAR CAD. NO: 80A BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1862,6 +2777,21 @@
           <t>MUSALLA MAHALLESİ İKİÇEŞMELİK (KÜME EVLER) NO:84/1  ÇEŞME           / İZMİR</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1885,6 +2815,21 @@
           <t xml:space="preserve"> ADALET MAH. HAYDAR ALİYEV CAD.  NO: 34/1A BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1908,6 +2853,21 @@
           <t xml:space="preserve"> KONAK MAH. KESTELLİ CAD. NO: 2 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1931,6 +2891,21 @@
           <t>EGEMENLİK MAHALLESİ 6106/35 SOKAK NO: 2 A/0 BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1954,6 +2929,21 @@
           <t xml:space="preserve"> AKDENİZ MAH. AKDENİZ CAD. ANBA İŞHANI NO: 8A KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1977,6 +2967,21 @@
           <t>YALI                      MAHALLESİ 6524 SOK. NO: 7/4  İÇ KAPI NO: 51 KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -2000,6 +3005,21 @@
           <t>YENİŞEHİR                 MAHALLESİ 1245 SOK. NO:15/H   KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -2023,6 +3043,21 @@
           <t xml:space="preserve"> FATİH MAH. 1188/1 SK. NO: 1C GAZİEMİR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -2046,6 +3081,21 @@
           <t xml:space="preserve"> GAZİ BULVARI NO:22  ÇANKAYA / İZMİR</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -2069,6 +3119,21 @@
           <t>MEVLANA                   MAHALLESİ 1776/23 SOKAK  B BLOK  NO: 2A BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -2092,6 +3157,21 @@
           <t xml:space="preserve"> İMBATLI MAH. 6086 SK. NO: 8B KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -2115,6 +3195,21 @@
           <t>ALAYBEY                   MAHALLESİ CEMAL GÜRSEL CADDESİ EGE Apt.  NO: 68 A KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -2138,6 +3233,21 @@
           <t xml:space="preserve"> ALAYBEY MAHALLESİ 1690 SK.  NO: 109 A  KARŞIYAKA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -2161,6 +3271,21 @@
           <t>BAĞYURDU YENİ MAHALLESİ HAYITLIK MEVKİİ KÜME EVLERİ  NO: 1A  DAİRE:1 KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -2184,6 +3309,21 @@
           <t>İTOB OSB MAHALLESİ EKREM DEMİRTAŞ CAD. ENER Apt.  NO: 22 MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -2207,6 +3347,21 @@
           <t xml:space="preserve"> EFELER MAH. FORBES SK. NO: 70 İÇ KAPI NO: 1 BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -2230,6 +3385,21 @@
           <t xml:space="preserve"> GÖRECE CUMHURİYET MAHALLESİ GÜLÇIRPI CAD.  NO: 19  MENDERES/İZMİR  / </t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -2253,6 +3423,21 @@
           <t xml:space="preserve"> YALI MAH. 6523 SK. SOYAK MAVIŞEHIR KONUTLARI SİTESİ NO: 22 İÇ KAPI NO: 24 KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -2276,6 +3461,21 @@
           <t>ALAÇATI MAHALLESİ 12012 SK. NO:28/1  ÇEŞME           / İZMİR</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -2299,6 +3499,21 @@
           <t xml:space="preserve"> KÜLTÜR MAH. ŞEHİT NEVRES BUL. ECZACIBAŞI NO: 7 İÇ KAPI NO: 7 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -2322,6 +3537,21 @@
           <t xml:space="preserve"> BAYRAKLI MAH. ANADOLU CAD. ECZACIBAŞI BLOK  NO: 99/2  İÇ KAPI NO: 10 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -2345,6 +3575,21 @@
           <t xml:space="preserve"> İNCİRALTI  YILDIZ  NO:160 BALÇOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -2368,6 +3613,21 @@
           <t xml:space="preserve"> AKDENİZ MAH. CUMHURİYET BUL. NO: 120 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -2391,6 +3651,21 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3  İÇ KAPI NO: Z108 BALÇOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -2414,6 +3689,21 @@
           <t xml:space="preserve"> BAHRİYE ÜÇOK MAH. RÜŞTÜ ŞARDAĞ CAD. NO: 75 İÇ KAPI NO: 1 KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -2437,6 +3727,21 @@
           <t>MUSTAFA KEMAL MAHALLESİ 694/25 SOK. NO:5/A  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -2460,6 +3765,21 @@
           <t xml:space="preserve"> ADALET MAHALLESİ ANADOLU CAD.  NO: 41 /1/1901  BAYRAKLI/İZMİR  / </t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -2483,6 +3803,21 @@
           <t>EFELER                    MAHALLESİ 305 SK. NO: 27  İÇ KAPI NO: 4 BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -2506,6 +3841,21 @@
           <t>FIRAT MAHALLESİ 272 SOKAK PRESTIJ SİTESİ  NO: 159C  İÇ KAPI NO: C BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -2525,6 +3875,21 @@
         </is>
       </c>
       <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -2548,6 +3913,21 @@
           <t xml:space="preserve"> 1600 SK. NO:17/3  BAYRAKLI KARŞIYAKA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -2571,6 +3951,21 @@
           <t>BOSTANLI MAHALLESİ AHMET PENDİKLİ SK. NO:16  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -2594,6 +3989,21 @@
           <t>UMURBEY                   MAHALLESİ 1521 SOKAK NO:5/0  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -2617,6 +4027,21 @@
           <t xml:space="preserve"> MİTHATPAŞA CAD. NO:1460/Z-40 BALÇOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -2640,6 +4065,21 @@
           <t>MANSUROĞLU MAHALLESİ 292  SOK. İNŞAAT BLOK  NO: 11  İÇ KAPI NO: 14 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -2663,6 +4103,21 @@
           <t xml:space="preserve"> ALSANCAK MAH. 1464 SK.  NO: 71A  İÇ KAPI NO: 71A KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -2686,6 +4141,21 @@
           <t xml:space="preserve"> NO:1  KIZKAPAN MEVKİİ, MUSALLA MAH. ÇEŞME           / İZMİR</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -2709,6 +4179,21 @@
           <t xml:space="preserve"> 6449 SK. NO:23/A  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -2732,6 +4217,21 @@
           <t>GÜMÜLDÜR FEVZİ ÇAKMAK MAHALLESİ GAZİ MUSTAFA KEMAL BULVARI NO:154  MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -2755,6 +4255,21 @@
           <t xml:space="preserve"> DOĞANAY MAH. 9163 SK. NO: 37/1 İÇ KAPI NO: 4 KARABAĞLAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -2778,6 +4293,21 @@
           <t xml:space="preserve"> GÜZELYALI MAHALLESİ MİTHATPAŞA CAD.  NO: 933 /1/1  KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -2801,6 +4331,21 @@
           <t xml:space="preserve"> ÖZGÜR MAHALLESİ 3915 SK.  NO: 24  KARABAĞLAR/İZMİR  / </t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -2824,6 +4369,21 @@
           <t xml:space="preserve"> SALİH OMURTAK MAH. 9621 SK.  NO: 19 KARABAĞLAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -2847,6 +4407,21 @@
           <t>ALAÇATI MAHALLESİ NO:2  ÇEŞME           / İZMİR</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -2870,6 +4445,21 @@
           <t xml:space="preserve"> HÜRRİYET MAH. MENDERES CAD. NO: 345 İÇ KAPI NO: 3 BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -2893,6 +4483,21 @@
           <t xml:space="preserve"> ŞEMİKLER MAH. ORDU BUL. İSMAİL ONBAŞI BLOK  NO: 196A KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -2916,6 +4521,21 @@
           <t>KAZIM KARABEKİR MAHALLESİ 9022 SOKAK KERPEL BLOK  NO: 5B KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -2939,6 +4559,21 @@
           <t>KEMALPAŞA OSB MAHALLESİ İZMİR KEMALPAŞA ASFALTI CAD. NO:42/1  KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -2962,6 +4597,21 @@
           <t>85. YIL CUMHURİYET MAHALLESİ SANAYİ CADDESİ NO:33  KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -2985,6 +4635,21 @@
           <t xml:space="preserve"> KEMALPAŞA OSB MAH. İZMİR ANKARA YOLU (ANSIZCA) KÜME EVLERİ   NO: 357 KEMALPAŞA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -3008,6 +4673,21 @@
           <t>NALDÖKEN                  MAHALLESİ ATATÜRK CADDESI NO:2/B  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -3031,6 +4711,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL. GÜREL İŞ MERKEZİ BLOK  NO: 31A BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -3054,6 +4749,21 @@
           <t>ATATÜRK                   MAHALLESİ 909 SOKAK NO:16/A  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -3073,6 +4783,21 @@
         </is>
       </c>
       <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -3096,6 +4821,21 @@
           <t>CAMİATİK MAHALLESİ YABANGÜLÜ SK. NO: 8 URLA            / İZMİR</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -3119,6 +4859,21 @@
           <t>OSMANGAZİ MAHALLESİ 567/5  SOK. TURAN BLOK  NO: 3  İÇ KAPI NO: 1 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -3142,6 +4897,21 @@
           <t xml:space="preserve"> GÖKDERE MAH. CEYLAN SK. NO: 7A BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -3165,6 +4935,21 @@
           <t xml:space="preserve"> BAHAR MAH. ESKİİZMİR CAD. ÖZEL BOZYAKA BLOK  NO: 144/1 KARABAĞLAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -3188,6 +4973,21 @@
           <t xml:space="preserve"> KILIÇ REİS  319  NO:50/C KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -3211,6 +5011,21 @@
           <t xml:space="preserve"> EGEMENLİK MAHALLESİ 6125/1 SK.  NO: 16 A  BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -3234,6 +5049,21 @@
           <t xml:space="preserve"> ÖRNEKKÖY MAH. 7505 SK. NO: 7A KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -3257,6 +5087,21 @@
           <t xml:space="preserve"> CUMHURİYET BLV. NO:99  KAT:1 DAİRE:101 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -3280,6 +5125,21 @@
           <t xml:space="preserve"> 10003 SK NO:2  İTOB ORGANİZE SAN BÖLG. MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -3303,6 +5163,21 @@
           <t>MANSUROĞLU MAHALLESİ ANKARA CAD. NO: 81/26  BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -3326,6 +5201,21 @@
           <t xml:space="preserve"> 10003 SK NO:2  İTOB ORGANİZE SAN BÖLG. MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -3349,6 +5239,21 @@
           <t>VALİ RAHMİ BEY            MAHALLESİ ÖZMEN CADDESI NO:88/305  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -3372,6 +5277,21 @@
           <t xml:space="preserve"> FATİH  1188  NO:11 GAZİEMİR/İZMİR  / </t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -3395,6 +5315,21 @@
           <t xml:space="preserve"> UMURBEY MAHALLESİ 1521 SOKAK NO:4/B  ALSANCAK KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -3418,6 +5353,21 @@
           <t xml:space="preserve"> ÇINARKÖY MAHALLESİ 5009 SK.  NO: 5 N  KEMALPAŞA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -3437,6 +5387,21 @@
         </is>
       </c>
       <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -3460,6 +5425,21 @@
           <t>ALSANCAK MAHALLESİ 1469 SOKAK  NO: 28  İÇ KAPI NO: 73 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -3483,6 +5463,21 @@
           <t xml:space="preserve"> ALSANCAK MAH. 1469 SK. NO: 28 İÇ KAPI NO: 73 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -3506,6 +5501,21 @@
           <t xml:space="preserve"> ALSANCAK MAH. 1469 SK.  NO: 28  İÇ KAPI NO: 73 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -3529,6 +5539,21 @@
           <t xml:space="preserve"> İTOB OSB MAH. İTOB ATATÜRK CAD.  NO: 10 MENDERES / İZMİR  / </t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -3552,6 +5577,21 @@
           <t>KEMALPAŞA                 MAHALLESİ 7093 SOKAK NO:7  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -3575,6 +5615,21 @@
           <t xml:space="preserve"> UMURBEY MAHALLESİ 1521 SOKAK NO:4/B  ALSANCAK KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -3598,6 +5653,21 @@
           <t>ÇINARLI                   MAHALLESİ ANKARA ASFALTI CADDESİ NO:15/391  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -3621,6 +5691,21 @@
           <t xml:space="preserve"> ERZENE MAH. KAZIM KARABEKİR CAD. MELEK BLOK  NO: 47B BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -3644,6 +5729,21 @@
           <t xml:space="preserve"> ZAFER SB MAHALLESİ SADİ SK.  NO: 6  GAZİEMİR/İZMİR  / </t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -3667,6 +5767,21 @@
           <t xml:space="preserve"> ŞİRİNKAPI MAH. YAVUZ SULTAN SELİM CAD.  NO: 84A BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -3690,6 +5805,21 @@
           <t xml:space="preserve"> ATATÜRK CADDESİ NO:19/BM 23/B KONAK PİER  / </t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -3713,6 +5843,21 @@
           <t xml:space="preserve"> MANSUROĞLU MAHALLESİ ANKARA CAD.  NO: 81/95  BAYRAKLI/İZMİR  / </t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -3736,6 +5881,21 @@
           <t xml:space="preserve"> 10003 SK NO:2  İTOB ORGANİZE SAN BÖLG. MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -3759,6 +5919,21 @@
           <t>MANSUROĞLU MAHALLESİ ANKARA CAD. NO:81/95  BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -3782,6 +5957,21 @@
           <t xml:space="preserve"> EKREM DEMİRTAŞ CADDESİ NO:10/1  İTOB ORGANİZE SANAYİ BÖLGESİ MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -3805,6 +5995,21 @@
           <t>MEVLANA                   MAHALLESİ 1710/5 SOKAK NO:46/A  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -3828,6 +6033,21 @@
           <t xml:space="preserve"> KEMALPAŞA CADDESİ NO:313  IŞIKKENT BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -3851,6 +6071,21 @@
           <t xml:space="preserve"> ETİLER MAH. GAZİLER CAD. NO: 71 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -3874,6 +6109,21 @@
           <t xml:space="preserve"> ATATÜRK MAHALLESİ ÇEŞME ASFALTI DÖRTYOL MEVKİİ NO:202 URLA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -3897,6 +6147,21 @@
           <t xml:space="preserve"> İSMET KAPTAN MAH. 1364 SK. KUTUCULAR İŞ MERKEZİ NO: 2 İÇ KAPI NO: 708 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -3920,6 +6185,21 @@
           <t>ETİLER MAHALLESİ 9 EYLÜL MEYDANI NO:13/A MEYDAN HAN BLOK   KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -3943,6 +6223,21 @@
           <t xml:space="preserve"> ILICA MAHALLESİ 5123 SOKAK NO:7/A ÇEŞME/İZMİR  / </t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -3966,6 +6261,21 @@
           <t>ALAÇATI MAHALLESİ 16091 SK. NO:2  ÇEŞME           / İZMİR</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -3989,6 +6299,21 @@
           <t xml:space="preserve"> FIRAT MAH. 294/2 SK. A BLOK  NO: 7B  İÇ KAPI NO: 20 BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -4008,6 +6333,21 @@
         </is>
       </c>
       <c r="E156" t="inlineStr"/>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -4031,6 +6371,21 @@
           <t>19 MAYIS MAHALLESİ 5420 SOKAK NO:13  YEŞİLDERE / İZMİR</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -4054,6 +6409,21 @@
           <t xml:space="preserve"> KAZIM KARABEKİR CAD. NO:4/G  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -4077,6 +6447,21 @@
           <t xml:space="preserve"> BAHÇELERARASI MAH. MİTHATPAŞA CAD. NO: 46 İÇ KAPI NO: Z21 BALÇOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -4100,6 +6485,21 @@
           <t xml:space="preserve"> ADALET MAH. 1586/7 SK. B BLOK  NO: 4  İÇ KAPI NO: 9 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -4123,6 +6523,21 @@
           <t xml:space="preserve"> KAZIMDİRİK MAH. 375/2 SK. NO: 2D BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -4146,6 +6561,21 @@
           <t>KONAK                     MAHALLESİ 877 SOKAK NO:6  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -4169,6 +6599,21 @@
           <t xml:space="preserve"> MENDERES MAH. 156 SK. ATMACA NO: 40A İÇ KAPI NO: A BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -4192,6 +6637,21 @@
           <t xml:space="preserve"> GÜMÜŞPALA MAH. 7000 SK.  NO: 74B BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -4215,6 +6675,21 @@
           <t xml:space="preserve"> İTOB OSB MAHALLESİ 10025 SK.  NO: 12/_  MENDERES/İZMİR  / </t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -4238,6 +6713,21 @@
           <t>BİRGİ MAHALLESİ ÇEŞME YOLU CADDESİ NO:14  URLA            / İZMİR</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -4261,6 +6751,21 @@
           <t>AKSOY MAHALLESİ GİRNE BLV. NO: 38E KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -4284,6 +6789,21 @@
           <t>EGEMENLİK MAHALLESİ AYDINLAR CAD. NO:87  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -4307,6 +6827,21 @@
           <t>ATATÜRK                   MAHALLESİ 850 SOKAK NO:14  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -4330,6 +6865,21 @@
           <t>ADALET MAHALLESİ MANAS BLV. NO: 12/2  BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -4353,6 +6903,21 @@
           <t>KARACAOĞLAN MAHALLESİ KEMALPAŞA CAD. NO:285/Z025  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -4376,6 +6941,21 @@
           <t>DOĞANLAR                  MAHALLESİ 1580 SOKAK DEVLET TIYATROSU ATOLYESI SİTESİ  NO: 25E  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -4399,6 +6979,21 @@
           <t>GAZİOSMANPAŞA MAH. MAHALLESİ 5479 SOKAK NO:28/1A MUHARREM ULU SİT. BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -4422,6 +7017,21 @@
           <t xml:space="preserve"> YENİŞEHİR MAH. 1145/2 SK. NO: 30B KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -4441,6 +7051,21 @@
         </is>
       </c>
       <c r="E175" t="inlineStr"/>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -4464,6 +7089,21 @@
           <t xml:space="preserve"> SEKİZ EYLÜL MAH. KİRAZLI CAD. NO: 54B İÇ KAPI NO: B KEMALPAŞA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -4487,6 +7127,21 @@
           <t>ERGENE MAHALLESİ 456 SOK. NO: 72B BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -4510,6 +7165,21 @@
           <t>ETİLER                    MAHALLESİ ANAFARTALAR CADDESİ NO: 898B KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -4533,6 +7203,21 @@
           <t>AKDENİZ                   MAHALLESİ 1342 SOKAK NO:15  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -4556,6 +7241,21 @@
           <t>YENİCE MAHALLESİ KAMANLI SOK. NO:85  URLA            / İZMİR</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -4579,6 +7279,21 @@
           <t xml:space="preserve"> YURDOĞLU MAHALLESİ 3948/1 SK.  NO: 10  KARABAĞLAR/İZMİR  / </t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -4602,6 +7317,21 @@
           <t>KARACAOĞLAN               MAHALLESİ 6244 SOKAK NO:20/A  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -4625,6 +7355,21 @@
           <t xml:space="preserve"> ATATÜRK MAH. 2206 SK.  NO: 20/1 URLA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -4648,6 +7393,21 @@
           <t xml:space="preserve"> 29 EKİM MAHALLESİ 2231 SK.  NO: 10/0  BUCA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -4671,6 +7431,21 @@
           <t>KONAK                     MAHALLESİ ANAFARTALAR CD. NO: 150  İÇ KAPI NO: Z13  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -4694,6 +7469,21 @@
           <t xml:space="preserve"> KEMALPAŞA OSB MAH. 24 SK.  NO: 4 KEMALPAŞA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -4717,6 +7507,21 @@
           <t>MANSUROĞLU MAHALLESİ 283/15 SOKAK NO:1/C  BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -4740,6 +7545,21 @@
           <t xml:space="preserve"> FATİH CADDESİ NO:10/2-C  MERSİNLİ KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -4763,6 +7583,21 @@
           <t>ŞEMİKLER MAHALLESİ 6214/1 SK. HIZIR EYUBOGLU APT BLOK  NO: 12B KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -4786,6 +7621,21 @@
           <t xml:space="preserve"> KEMALPAŞA OSB MAH. 29 SK. NO: 3 İÇ KAPI NO: 1 KEMALPAŞA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -4809,6 +7659,21 @@
           <t xml:space="preserve"> GÜMÜLDÜR FEVZİ ÇAKMAK MAHALLESİ GAZİ MUSTAFA KEMAL PAŞA BLV.  NO: 144 -A/-A  MENDERES/İZMİR  / </t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -4832,6 +7697,21 @@
           <t xml:space="preserve"> ALİ FUAT CEBESOY MAH. 9503 SK. KARANFİL NO: 41 İÇ KAPI NO: 11 KARABAĞLAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -4855,6 +7735,21 @@
           <t xml:space="preserve"> İTOB OSB MAH. 10005 SK.  NO: 50 MENDERES / İZMİR  / </t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -4878,6 +7773,21 @@
           <t>MANAVKUYU MAHALLESİ ŞEHİT PİLOT ÜST. TÜRKER AYDIN  BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -4901,6 +7811,21 @@
           <t>FATİH                     MAHALLESİ 1188 SOKAK NO:11  SARNIÇ GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -4924,6 +7849,21 @@
           <t>KEMALPAŞA                 MAHALLESİ 7086 SOKAK NO:18  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -4947,6 +7887,21 @@
           <t xml:space="preserve"> GÜMÜLDÜR FEVZİ ÇAKMAK MAH. GÜMÜLDÜR İZMİR CAD. GÜMÜLDÜR FEVZİ ÇAKMAK CAMİİ NO: 142D MENDERES / İZMİR  / </t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -4970,6 +7925,21 @@
           <t>İSMET İNÖNÜ MAHALLESİ 2060 SK. NO: 12/1  İÇ KAPI NO: 1 ÇEŞME           / İZMİR</t>
         </is>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -4993,6 +7963,21 @@
           <t xml:space="preserve"> DALYAN MAH. 4218 SK. NO: 5A ÇEŞME / İZMİR  / </t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -5016,6 +8001,21 @@
           <t>GÜLBAHÇE MAHALLESİ 12134 SK. NO: 2 URLA            / İZMİR</t>
         </is>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -5039,6 +8039,21 @@
           <t>YAKA MAHALLESİ ÇAY SOKAK NO: 25B URLA            / İZMİR</t>
         </is>
       </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -5062,6 +8077,21 @@
           <t xml:space="preserve"> M.FEVZİ ÇAKMAK MAH. 4111 SK. ÖRNEK BATI KENT KONUT YAPI KOOP. NO: 8B URLA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -5085,6 +8115,21 @@
           <t xml:space="preserve"> GÖLCÜKLER MAHALLESİ İSTASYON CAD.  NO: 38 /1  MENDERES/İZMİR  / </t>
         </is>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -5108,6 +8153,21 @@
           <t xml:space="preserve"> GÜLYAKA MAH. ESKİİZMİR CAD. NO: 212E İÇ KAPI NO: E KARABAĞLAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -5131,6 +8191,21 @@
           <t>BALATÇIK                  MAHALLESİ 8786/27 SK. NO:4 C BLOK ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -5154,6 +8229,21 @@
           <t xml:space="preserve"> PINAR CAD. NO:89  PINARBAŞI BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -5177,6 +8267,21 @@
           <t xml:space="preserve"> DOĞANLAR  1419  NO:32 BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -5200,6 +8305,21 @@
           <t>VATAN MAHALLESİ FARUK AKARSU CAD. NERGİZ Apt.  NO: 27 C/C KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -5223,6 +8343,21 @@
           <t xml:space="preserve"> ULAMIŞ MAH. İZMİR CAD. ATA AMBALAJ SİTESİ LOJMAN BLOK  NO: 201-3  İÇ KAPI NO: 1 SEFERİHİSAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -5246,6 +8381,21 @@
           <t xml:space="preserve"> MEHMET AKİF ERSOY MAHALLESİ KİRAZLI CAD.  NO: 158 A  KEMALPAŞA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -5269,6 +8419,21 @@
           <t xml:space="preserve"> FERAHLI MAH. 3466 SK. NO: 16/1A KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -5292,6 +8457,21 @@
           <t xml:space="preserve"> FERAHLI MAH. 3466 SK. NO: 16/1A KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -5315,6 +8495,21 @@
           <t>GÜNEY                     MAHALLESİ 1121 SOKAK NO:19/1  / İZMİR</t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -5338,6 +8533,21 @@
           <t>İTOB OSB MAHALLESİ 10014 SOKAK NO:2  MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -5361,6 +8571,21 @@
           <t xml:space="preserve"> KÜLTÜR MAH. 1392 SK.  NO: 13D KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -5384,6 +8609,21 @@
           <t>İTOB OSB MAHALLESİ 10020 SOK. NO:34  MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -5407,6 +8647,21 @@
           <t>KUŞÇULAR MAHALLESİ 8018/1 SK. NO: 39A URLA            / İZMİR</t>
         </is>
       </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -5430,6 +8685,21 @@
           <t>MEVLANA                   MAHALLESİ 1776 SOKAK NO:56 İÇ KAPI NO: A BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -5453,6 +8723,21 @@
           <t xml:space="preserve"> GÖRECE CUMHURİYET MAH. GÜLÇIRPI CAD.  NO: 19 MENDERES / İZMİR  / </t>
         </is>
       </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -5476,6 +8761,21 @@
           <t>ALAÇATI MAHALLESİ 13010 SK. NO:8/5B  ÇEŞME           / İZMİR</t>
         </is>
       </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -5499,6 +8799,21 @@
           <t xml:space="preserve"> ÇOLAK İBRAHİM BEY MAHALLESİ İZMİR CAD. NO:132/A  / </t>
         </is>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -5522,6 +8837,21 @@
           <t xml:space="preserve"> YUNUS EMRE MAH. 4160 SK.  NO: 28A KARABAĞLAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -5545,6 +8875,21 @@
           <t xml:space="preserve"> YAĞCILAR MAHALLESİ 9029 SK.  NO: 8  URLA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -5568,6 +8913,21 @@
           <t xml:space="preserve"> EGEMENLİK MAH. 6106/35 SK.  NO: 1 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -5591,6 +8951,21 @@
           <t xml:space="preserve"> YILDIRIM BEYAZIT MAH. FATİH CAD. NO: 43  İÇ KAPI NO: Z08 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -5614,6 +8989,21 @@
           <t xml:space="preserve"> ADATEPE MAH. 15 SK. NO: 50 İÇ KAPI NO: 1 BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -5637,6 +9027,21 @@
           <t>SEKİZ EYLÜL MAHALLESİ KİRAZLI CAD. NO:65/A  KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -5660,6 +9065,21 @@
           <t>EVKA-3                    MAHALLESİ 129/18 SOKAK NO:11/B  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -5683,6 +9103,21 @@
           <t>ALAÇATI MAHALLESİ HURMALI KÜME EVLERİ NO: 63 ÇEŞME           / İZMİR</t>
         </is>
       </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -5706,6 +9141,21 @@
           <t xml:space="preserve"> KEMALPAŞA OSB MAHALLESİ 64 SK.  NO: 7/1  KEMALPAŞA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -5729,6 +9179,21 @@
           <t xml:space="preserve"> ŞAŞAL MAH. 7904 SK.  NO: 21 MENDERES / İZMİR  / </t>
         </is>
       </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -5752,6 +9217,21 @@
           <t>ERGENE MAHALLESİ 456 SOK. NO:135-135A-135/1 BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -5775,6 +9255,21 @@
           <t>TINAZTEPE                 MAHALLESİ EŞREFPAŞA CADDESİ NO: 237-241  İÇ KAPI NO: 6 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -5798,6 +9293,21 @@
           <t xml:space="preserve"> ÇAMLIKULE MAH. 200/17 SK. NO: 25A BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -5821,6 +9331,21 @@
           <t>AKIN SİMAV MAHALLESİ MİTHAT PAŞA CAD. NO:355 CANGÖZ BLOK  İÇ KAPI NO: 11 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -5844,6 +9369,21 @@
           <t xml:space="preserve"> DOKUZ EYLÜL MAH. 695 SK. NO: 9 GAZİEMİR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -5867,6 +9407,21 @@
           <t xml:space="preserve"> MANSUROĞLU MAH. 1593/1 SK. LIDER CENTRIO BLOK  NO: 2  İÇ KAPI NO: 50 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -5890,6 +9445,21 @@
           <t xml:space="preserve"> ERGENE MAH. 531/1 SK.  NO: 3A BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -5913,6 +9483,21 @@
           <t>AKDENİZ                   MAHALLESİ CUMHURİYET BULVARI NO:99/9 MAHMUT RIZA IŞ MERKEZI Apt. KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -5936,6 +9521,21 @@
           <t xml:space="preserve"> BAHRİYE ÜÇOK MAH. ATATÜRK BUL. BULVAR NO: 16/1A KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -5959,6 +9559,21 @@
           <t xml:space="preserve"> NERGİZ MAH. 6019 SK. KAHRAMAN NO: 16A KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -5978,6 +9593,21 @@
         </is>
       </c>
       <c r="E242" t="inlineStr"/>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -6001,6 +9631,21 @@
           <t xml:space="preserve"> YALI MAH. 6522 SK. NO: 3 İÇ KAPI NO: Z015 KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -6024,6 +9669,21 @@
           <t xml:space="preserve"> YENİKENT MAHALLESİ ÇEŞME URLA İZMİR ASFALTI CAD.  NO: 143  URLA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -6047,6 +9707,21 @@
           <t>HALKAPINAR MAHALLESİ 1203/11 SOKAK NO: 5-7  İÇ KAPI NO: 72 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -6070,6 +9745,21 @@
           <t xml:space="preserve"> HALKAPINAR MAH. 1203/11 SK.  NO: 5-7  İÇ KAPI NO: 72 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -6093,6 +9783,21 @@
           <t xml:space="preserve"> MUSTAFA KEMAL MAH. 694 SK. NO: 35A BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -6116,6 +9821,21 @@
           <t xml:space="preserve"> GÜNDÜZ SOK. NO:8/H  EGE SERBEST BÖLGESİ GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -6139,6 +9859,21 @@
           <t>KARACAOĞLAN MAHALLESİ 6166 SK. C-D BLOK  NO: 32D BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -6158,6 +9893,21 @@
         </is>
       </c>
       <c r="E250" t="inlineStr"/>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -6181,6 +9931,21 @@
           <t>BAHÇELİEVLER              MAHALLESİ 1851/4 SK.  VARDAR BLOK  NO: 2/2A  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -6204,6 +9969,21 @@
           <t xml:space="preserve"> ÖREN 75.YIL CUMHURİYET MAH. NİF ÇAYI SK.  NO: 6  İÇ KAPI NO: 1 KEMALPAŞA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -6227,6 +10007,21 @@
           <t>ATAŞEHİR MAHALLESİ 8229/3 SK. NO: 17  ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -6250,6 +10045,21 @@
           <t xml:space="preserve"> ŞEHİTLER BULVARI NO:2/C KARŞIYAKA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -6273,6 +10083,21 @@
           <t xml:space="preserve"> ÇALIKUŞU MAH. HALİDE EDİP ADIVAR CAD. NO: 172 KARABAĞLAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -6296,6 +10121,21 @@
           <t>YENİŞEHİR                 MAHALLESİ 1019 SOKAK NO:1  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -6319,6 +10159,21 @@
           <t>GÖLCÜK MAHALLESİ 14005/1 SK.  NO: 7A SEFERİHİSAR     / İZMİR</t>
         </is>
       </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -6342,6 +10197,21 @@
           <t>GÜZELYALI MAHALLESİ MİTHATPAŞA CD. 1074/B P:4 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -6365,6 +10235,21 @@
           <t xml:space="preserve"> HÜRRİYET MAH. 5113 SK. KERESTECILER ÇARŞISI SİTESİ NO: 62 MENDERES / İZMİR  / </t>
         </is>
       </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -6388,6 +10273,21 @@
           <t>ZAFER MAHALLESİ TURGUT ÖZAL CAD. NO:102  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -6411,6 +10311,21 @@
           <t xml:space="preserve"> HÜRRİYET MAH. MENDERES CAD. NO: 277B İÇ KAPI NO: B BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -6434,6 +10349,21 @@
           <t xml:space="preserve"> KAZIMDİRİK MAH. 364/11 SK.  NO: 1/3V BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -6457,6 +10387,21 @@
           <t xml:space="preserve"> ÇINARLI MAHALLESİ 1587 SK.  NO: 2 -6/2103  KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -6480,6 +10425,21 @@
           <t xml:space="preserve"> KEMALPAŞA MAHALLESİ 7405 SK.  NO: 4  BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -6503,6 +10463,21 @@
           <t xml:space="preserve"> 7405 SK. NO:4  PINARBAŞI BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -6526,6 +10501,21 @@
           <t xml:space="preserve"> KARACAOĞLAN MAHALLESİ 6169 SK.  NO: 6 /11  BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -6549,6 +10539,21 @@
           <t>ADALET MAHALLESİ ŞEHİT POLİS FETİH SEKİN CAD. NO:6/193  BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -6572,6 +10577,21 @@
           <t>KÜLTÜR                    MAHALLESİ İTALYA SOKAK NO:22/B  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -6595,6 +10615,21 @@
           <t>UMURBEY                   MAHALLESİ LİMAN CADDESİ NO:38/1  ALSANCAK KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -6618,6 +10653,21 @@
           <t xml:space="preserve"> LİMAN CADDESİ NO:38  ALSANCAK KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -6641,6 +10691,21 @@
           <t xml:space="preserve"> HALİLBEYLİ OSB MAH. NİF CAD.  NO: 19 KEMALPAŞA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -6664,6 +10729,21 @@
           <t>KEMALPAŞA OSB MAHALLESİ 24/1 SK. NO:5  KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -6687,6 +10767,21 @@
           <t xml:space="preserve"> YENİŞEHİR MAH. 1145/4 SK.  NO: 11D KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -6710,6 +10805,21 @@
           <t xml:space="preserve"> DEDEBAŞI MAH. ANADOLU CAD. NO: 507B KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -6733,6 +10843,21 @@
           <t xml:space="preserve"> GAZİ MAH. 28/26 SK. NO: 5A GAZİEMİR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -6756,6 +10881,21 @@
           <t>İTOB OSB MAHALLESİ 10024 SK. NO:7  MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -6779,6 +10919,21 @@
           <t>RÜSTEM MAHALLESİ HUZUR SOKAK NO: 23 /1/1 URLA            / İZMİR</t>
         </is>
       </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -6802,6 +10957,21 @@
           <t xml:space="preserve"> GÖKSU MAH. 695/5 SK. NO: 3A İÇ KAPI NO: A BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -6825,6 +10995,21 @@
           <t xml:space="preserve"> KAZIMDİRİK MAH. KURTULUŞ CAD. ÖZKOÇ BLOK  NO: 11C BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -6848,6 +11033,21 @@
           <t>KARACAOĞLAN MAHALLESİ 6171/1 SK. NO:2/12  IŞIKKENT BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -6871,6 +11071,21 @@
           <t>KARACAOĞLAN               MAHALLESİ 6165 SOKAK NO:6/E  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -6894,6 +11109,21 @@
           <t>ALİ FUAT CEBESOY MAHALLESİ 9170/11 SK. NO: 4A KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -6917,6 +11147,21 @@
           <t xml:space="preserve"> KOZAĞAÇ MAH. 232 SK. NO: 4 BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -6940,6 +11185,21 @@
           <t xml:space="preserve"> GÖRECE CUMHURİYET MAH. MİTHATPAŞA CAD. 2A1 BLOK  NO: 2 MENDERES / İZMİR  / </t>
         </is>
       </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -6963,6 +11223,21 @@
           <t xml:space="preserve"> İNÖNÜ MAH. 672 SK.  NO: 89A BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -6986,6 +11261,21 @@
           <t xml:space="preserve"> GÜMÜLDÜR CUMHURİYET MAH. SEVGİ CAD. NO: 434 MENDERES / İZMİR  / </t>
         </is>
       </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -7009,6 +11299,21 @@
           <t xml:space="preserve"> 16 EYLÜL MAHALLESİ 3001 SK.  NO: 24/4  ÇEŞME/İZMİR  / </t>
         </is>
       </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -7032,6 +11337,21 @@
           <t xml:space="preserve"> OSMANGAZİ  MAH. 567/3 SK. BERKER NO: 1A BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -7055,6 +11375,21 @@
           <t xml:space="preserve"> CUMHURİYET MEYDANI KARABURUN İZMİR  / </t>
         </is>
       </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -7078,6 +11413,21 @@
           <t xml:space="preserve"> BOĞAZİÇİ MAH. 2203 SK. NO: 3 İÇ KAPI NO: 4 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -7101,6 +11451,21 @@
           <t>KAZIM DİRİK MAHALLESİ 225 SK. NO:12/A  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -7124,6 +11489,21 @@
           <t xml:space="preserve"> ONUR  ÇAĞATAY   NO:1/A BALÇOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -7147,6 +11527,21 @@
           <t>AKDENİZ                   MAHALLESİ ŞEHİT FETHİBEY CADDESİ NO:55 HERİS TOWER BLOK İÇ KAPI NO: 091  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -7170,6 +11565,21 @@
           <t xml:space="preserve"> MEHMET ALİ AKMAN MAHALLESİ İNÖNÜ CAD.  NO: 658 C/0  KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -7193,6 +11603,21 @@
           <t xml:space="preserve"> REİS MAHALLESİ ORDU CAD. NO: 143 A/A KARABAĞLAR/İZMİR  / </t>
         </is>
       </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -7216,6 +11641,21 @@
           <t>REİS MAHALLESİ ŞÜKRÜ KARADUMAN CAD. NO: 47 A/A KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -7239,6 +11679,21 @@
           <t>KONAK                     MAHALLESİ 855 SOKAK NO: 34  İÇ KAPI NO: MÜSTAKİL  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -7262,6 +11717,21 @@
           <t>GÜZELYALI                 MAHALLESİ 40 SOKAK NO: 53C  İÇ KAPI NO: C KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -7285,6 +11755,21 @@
           <t xml:space="preserve"> BADEMLER KÖYÜ GÖDENCE YOLU  NO:40 40/A 40/B URLA            / İZMİR</t>
         </is>
       </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -7308,6 +11793,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 3405 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -7331,6 +11831,21 @@
           <t>KUŞÇULAR MAHALLESİ 8015/2 NO:8/1  URLA            / İZMİR</t>
         </is>
       </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -7354,6 +11869,21 @@
           <t>KUŞÇULAR MAHALLESİ 8015/2 NO:8/2  URLA            / İZMİR</t>
         </is>
       </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -7377,6 +11907,21 @@
           <t>MENDERES                  MAHALLESİ BÜYÜK MENDERES CAD. NO:129/A  GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -7400,6 +11945,21 @@
           <t xml:space="preserve"> 1257 SOK. NO:6/A-B  EVKA-1 BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -7423,6 +11983,21 @@
           <t>ADALET MAHALLESİ MANAS BUL. FOLKART TOWERS BLOK  NO: 47B  İÇ KAPI NO:2601 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -7446,6 +12021,21 @@
           <t xml:space="preserve"> 1644 SOK. NO:72/A  BAYRAKLI KARŞIYAKA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -7469,6 +12059,21 @@
           <t>GÜNEY                     MAHALLESİ 1159 SOKAK NO:38  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -7492,6 +12097,21 @@
           <t xml:space="preserve"> ANADOLU CAD. NO:541/B KARŞIYAKA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -7515,6 +12135,21 @@
           <t>GÜZELYALI MAHALLESİ MİTHATPAŞA CD. NO:1056/A/A ÇINAR Apt.  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -7538,6 +12173,21 @@
           <t xml:space="preserve"> EGEMENLİK MAH. 6106/17 SK.  NO: 17 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -7561,6 +12211,21 @@
           <t xml:space="preserve"> AYDIN MAHALLESİ 4328 SK.  NO: 33/Z1  KARABAĞLAR/İZMİR  / </t>
         </is>
       </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -7584,6 +12249,21 @@
           <t xml:space="preserve"> CAMİKEBİR MAH. SANAYİ 7 SK. NO: 7/3 SEFERİHİSAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -7607,6 +12287,21 @@
           <t>MANSUROĞLU MAHALLESİ 286/3  SOK. NO: 14 B/0 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -7630,6 +12325,21 @@
           <t xml:space="preserve"> YENİ        SARICEVİZ KÜMEEVLER NO:25/2/1   NO:/ KEMALPAŞA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -7653,6 +12363,21 @@
           <t>İTOB OSB MAHALLESİ EKREM DEMİRTAŞ CAD. NO: 20 MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -7676,6 +12401,21 @@
           <t>SIĞACIK MAHALLESİ ESKİ SIĞACIK YOLU CAD. NO: 4 B SEFERİHİSAR     / İZMİR</t>
         </is>
       </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -7699,6 +12439,21 @@
           <t>VALİ RAHMİ BEY            MAHALLESİ 110 SK. NO:1  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -7722,6 +12477,21 @@
           <t>KEMALPAŞA OSB MAHALLESİ GAZİ BULVARI DİMES BLOK  NO: 181  İÇ KAPI NO: 1 KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -7745,6 +12515,21 @@
           <t>ADALET MAHALLESİ ANADOLU CADDESİ MEGAPOL TOWER BLOK  NO: 41  İÇ KAPI NO: 081 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -7768,6 +12553,21 @@
           <t>İSMET KAPTAN              MAHALLESİ ŞEHİT NEVRES BULVARI NO:10 DEREN PLAZA BLOK  İÇ KAPI NO: 11  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -7791,6 +12591,21 @@
           <t xml:space="preserve"> NO:12/A  ALSANCAK KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -7814,6 +12629,21 @@
           <t xml:space="preserve"> ALSANCAK MAH. KIBRIS ŞEHİTLERİ CAD. PARK DEDEMAN OTEL NO: 140 İÇ KAPI NO: 140 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -7837,6 +12667,21 @@
           <t>KARACAOĞLAN               MAHALLESİ KEMALPAŞA CADDESI İZOTAŞ SİT. NO: 285/Z024 BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -7860,6 +12705,21 @@
           <t xml:space="preserve"> BAHARİYE MAH.    HİDAYET ERZEYBEK CAD.   NO:36 F KARŞIYAKA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -7883,6 +12743,21 @@
           <t xml:space="preserve"> ALAÇATI MAH. 12012 SK. NO: 5 ÇEŞME / İZMİR  / </t>
         </is>
       </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -7906,6 +12781,21 @@
           <t xml:space="preserve"> İTOB OSB MAHALLESİ 10017 SK.  NO: 7  MENDERES/İZMİR  / </t>
         </is>
       </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -7929,6 +12819,21 @@
           <t xml:space="preserve"> İTOB OSB MAH. 10005 SK. GÜVEN ER KIMYA NO: 20 MENDERES / İZMİR  / </t>
         </is>
       </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -7952,6 +12857,21 @@
           <t xml:space="preserve"> KONAK MAHALLESİ DR. FAİK MUHİTTİN ADAM CAD. ULUSOY APT.  NO: 18 A  KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -7975,6 +12895,21 @@
           <t xml:space="preserve"> YUNUS EMRE MAH. 7408/6 SK. SARDALAR DIŞ TİC.LTD.ŞTİ. SİTESİ NO: 38A BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -7998,6 +12933,21 @@
           <t xml:space="preserve"> DOĞANLAR MAH. 1574/4 SK. NO: 5C BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -8021,6 +12971,21 @@
           <t xml:space="preserve"> NERGİZ MAH. 6003 SK. NO: 49A KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -8044,6 +13009,21 @@
           <t xml:space="preserve"> ÇINARLI MAH. OZAN ABAY CAD. EGEPERLA NO: 8 İÇ KAPI NO: 218 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -8067,6 +13047,21 @@
           <t xml:space="preserve"> 1135 SOKAK NO:5  ZEYTİNLİK KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -8090,6 +13085,21 @@
           <t>ZEYTİNLİK                 MAHALLESİ 1140 SOKAK NO:4  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -8113,6 +13123,21 @@
           <t xml:space="preserve"> MEVLANA MAHALLESİ 1710/5 SK.  NO: 5  BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -8136,6 +13161,21 @@
           <t>YENİGÜN                   MAHALLESİ 280 SOKAK B BLOK  NO: 6BB BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -8159,6 +13199,21 @@
           <t xml:space="preserve"> KEMALPAŞA CADDESI NO:112/A  ALTINDAĞ BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -8182,6 +13237,21 @@
           <t xml:space="preserve"> KARACAOĞLAN   6169  NO:8/Z/6 BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -8205,6 +13275,21 @@
           <t>KARACAOĞLAN MAHALLESİ 6170 SOK. NO:15/C  IŞIKKENT BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -8228,6 +13313,21 @@
           <t xml:space="preserve"> BADEMLER MAH. 15050 SK. NO: 54/1 URLA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -8251,6 +13351,21 @@
           <t>NAZARKÖY MAHALLESİ SAVANDA KURUDERE YOLU KÜME EVLERİ 18526839 SİTESİ NO:1 KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -8274,6 +13389,21 @@
           <t>KONAK                     MAHALLESİ 852 SOKAK KEMER PLAZA BLOK  NO: 2C  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -8297,6 +13427,21 @@
           <t xml:space="preserve"> KEMALPAŞA MAHALLESİ KEMALPAŞA CAD.  NO: 262  BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -8320,6 +13465,21 @@
           <t>KAZIM DİRİK MAHALLESİ GEDİZ CAD. NO:15/E ÖZKANLAR MURAT 5-A Apt. BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -8343,6 +13503,21 @@
           <t>UZUNDERE                  MAHALLESİ ESKİİZMİR CADDESİ NO:898/1  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
@@ -8366,6 +13541,21 @@
           <t>MAVİŞEHİR                 MAHALLESİ CAHER DUDAYEV BULVARI NO:40/304 A APT. KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
@@ -8389,6 +13579,21 @@
           <t>NALDÖKEN                  MAHALLESİ HACILARKIRI CADDESİ NO: 7/1D  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
@@ -8412,6 +13617,21 @@
           <t xml:space="preserve"> POLAT CADDESİ NO:84/B  YEŞİLYURT / İZMİR</t>
         </is>
       </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
@@ -8435,6 +13655,21 @@
           <t>ZAFER MAHALLESİ 2371 SOKAK NO: 11/1 BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
@@ -8458,6 +13693,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL. NO: 39 İÇ KAPI NO: 2511 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
@@ -8481,6 +13731,21 @@
           <t>YEŞİLOVA                  MAHALLESİ 4032 SOKAK NO:18/B  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
@@ -8504,6 +13769,21 @@
           <t>KOCATEPE                  MAHALLESİ 558 SOKAK NO: 4 B/B KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -8527,6 +13807,21 @@
           <t>ÇINARLI                   MAHALLESİ 1572 SOKAK NO:33  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H353" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
@@ -8550,6 +13845,21 @@
           <t xml:space="preserve"> MANSUROĞLU SAKARYA   NO:19/1 BAYRAKLI/İZMİR  / </t>
         </is>
       </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
@@ -8569,6 +13879,21 @@
         </is>
       </c>
       <c r="E355" t="inlineStr"/>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
@@ -8592,6 +13917,21 @@
           <t xml:space="preserve"> KEMALPAŞA MAH. 7405 SK. NO: 4 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
@@ -8615,6 +13955,21 @@
           <t>POLİGON MAHALLESİ İNÖNÜ CAD. NO:705/B İÇ KAPI NO: B  6. SANAYİ SİTESİ KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
@@ -8638,6 +13993,21 @@
           <t>KÜÇÜK ÇİĞLİ               MAHALLESİ ANADOLU CAD.  NO: 1221A ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -8661,6 +14031,21 @@
           <t>ETİLER                    MAHALLESİ GAZİLER CADDESİ NO: 78C  İÇ KAPI NO: C  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
@@ -8684,6 +14069,21 @@
           <t>ÇAMLIPINAR                MAHALLESİ 293/33 SK. NO: 12A BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H360" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
@@ -8707,6 +14107,21 @@
           <t>KEMALPAŞA MAHALLESİ 7086/4 SK NO:7/C  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
@@ -8730,6 +14145,21 @@
           <t>EVKA-3                    MAHALLESİ 129/13 SOKAK NO:21  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H362" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
@@ -8753,6 +14183,21 @@
           <t>ERZENE MAHALLESİ 48 SK. MUSTAFA SARCAN SİTESİ  NO: 5  İÇ KAPI NO: 1 BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H363" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
@@ -8776,6 +14221,21 @@
           <t xml:space="preserve"> CÜNEYTBEY MAH. TAN SK.  NO: 7B MENDERES / İZMİR  / </t>
         </is>
       </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
@@ -8799,6 +14259,21 @@
           <t>İNÖNÜ MAHALLESİ MERYEM ANA CAD. NO:92/A  GÜMÜLDÜR MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H365" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
@@ -8822,6 +14297,21 @@
           <t>İNCİRALTI                 MAHALLESİ YILDIZ SOKAK NO:160  BALÇOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
@@ -8845,6 +14335,21 @@
           <t xml:space="preserve"> KÜLTÜR MAH. ŞEHİT NEVRES BUL. ECZACIBAŞI NO: 7 İÇ KAPI NO: 7 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
@@ -8868,6 +14373,21 @@
           <t>İNCİRALTI                 MAHALLESİ YILDIZ SOKAK NO:160  BALÇOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
@@ -8891,6 +14411,21 @@
           <t xml:space="preserve"> ERZENE KAZIM KARABEKİR   NO:ÇINAR PASAJI /PASAJ NO :30 BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H369" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
@@ -8914,6 +14449,21 @@
           <t xml:space="preserve"> İSMETPAŞA MAHALLESİ 6057 SOK. NO:3  ALAÇATI ÇEŞME/İZMİR  / </t>
         </is>
       </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G370" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
@@ -8937,6 +14487,21 @@
           <t xml:space="preserve"> AKDENİZ MAHALLESİ CUMHURİYET BLV.  NO: 45/7  KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G371" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H371" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
@@ -8960,6 +14525,21 @@
           <t xml:space="preserve"> YILDIRIM BEYAZIT MAH. 5119 SK. NO: 46A BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G372" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H372" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
@@ -8983,6 +14563,21 @@
           <t xml:space="preserve"> CUMHURİYET MAHALLESİ MİTHATPAŞA CADDESİ NO:2A/14 GÖRECE MENDERES/İZMİR  / </t>
         </is>
       </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G373" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H373" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
@@ -9006,6 +14601,21 @@
           <t xml:space="preserve"> GÖRECE CUMHURİYET MAHALLESİ MİTHATPAŞA CAD. NO: 2A/14 GÖRECE MENDERES/İZMİR  / </t>
         </is>
       </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G374" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H374" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
@@ -9029,6 +14639,21 @@
           <t xml:space="preserve"> GÜNALTAY MAH. ESKİİZMİR CAD. AÇELYE NO: 413C KARABAĞLAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G375" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H375" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
@@ -9052,6 +14677,21 @@
           <t>METİN OKTAY MAHALLESİ 52/9 SK. NO:41/B  KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G376" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H376" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
@@ -9075,6 +14715,21 @@
           <t xml:space="preserve"> MANAVKUYU MAH. 236 SK. FERHAT BLOK  NO: 3D BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G377" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H377" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
@@ -9098,6 +14753,21 @@
           <t xml:space="preserve"> KEMALPAŞA OSB MAH. 529 SK. NO: 14 KEMALPAŞA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G378" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H378" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
@@ -9121,6 +14791,21 @@
           <t>FAİK PASA                 MAHALLESİ ANAFARTALAR CADDESİ NO:858  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G379" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H379" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
@@ -9144,6 +14829,21 @@
           <t>KEMALPAŞA OSB MAHALLESİ 41 SOKAK NO:3  ULUCAK KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G380" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H380" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
@@ -9167,6 +14867,21 @@
           <t>ÖRNEKKÖY                  MAHALLESİ BAŞ PEHLİVAN KARAALİ CADDESİ NO:12/A  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G381" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H381" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
@@ -9190,6 +14905,21 @@
           <t>KEMALPAŞA OSB MAHALLESİ İZMİR CAD. NO: 87  İÇ KAPI NO: 1 KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G382" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H382" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
@@ -9213,6 +14943,21 @@
           <t xml:space="preserve"> MENDERES CADDESİ NO:27/A  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G383" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H383" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
@@ -9236,6 +14981,21 @@
           <t xml:space="preserve"> 1518 SOKAK NO:10  ALSANCAK / İZMİR</t>
         </is>
       </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G384" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H384" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
@@ -9259,6 +15019,21 @@
           <t>KÖY İÇİ MAHALLESİ 8054 SK. NO: 22 A ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G385" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H385" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
@@ -9282,6 +15057,21 @@
           <t>ÖZBEK MAHALLESİ 6115 SK. NO: 10/1 URLA            / İZMİR</t>
         </is>
       </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G386" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H386" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
@@ -9305,6 +15095,21 @@
           <t xml:space="preserve"> KEMALPAŞA MAHALLESİ PINAR CAD. NO: 89/ BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G387" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H387" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
@@ -9328,6 +15133,21 @@
           <t xml:space="preserve"> BAHRİYE ÜÇOK MAH. ATATÜRK BUL. HAKYEMEZ BLOK  NO: 42A KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G388" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H388" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
@@ -9351,6 +15171,21 @@
           <t>ADALET MAHALLESİ 1594/9  SOK. NO:63/A  BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G389" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H389" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
@@ -9374,6 +15209,21 @@
           <t xml:space="preserve"> YENİKURUDERE MAHALLESİ YENİ KURUDERE YOLU ( KÜME EVLER ) 18592338 SİT.  NO: 97  KEMALPAŞA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G390" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H390" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
@@ -9397,6 +15247,21 @@
           <t>KELER MAHALLESİ DELİ ÖMER NO:26  MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G391" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H391" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
@@ -9420,6 +15285,21 @@
           <t>ÖRNEKKÖY                  MAHALLESİ KEMALPAŞA CADDESI NO:9  DAİRE:1 KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G392" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H392" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
@@ -9443,6 +15323,21 @@
           <t xml:space="preserve"> GÜRPINAR MAH. 7004 SK. NO: 47 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G393" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H393" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
@@ -9466,6 +15361,21 @@
           <t xml:space="preserve"> 93 SK. NO:18  PINARBAŞI / İZMİR</t>
         </is>
       </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G394" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H394" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
@@ -9489,6 +15399,21 @@
           <t>EGEMENLİK MAHALLESİ 6071 SOKAK NO: 4 A BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G395" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H395" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
@@ -9512,6 +15437,21 @@
           <t xml:space="preserve"> ZAFER MAHALLESİ 2360 SK.  NO: 55 /1  BUCA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G396" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H396" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
@@ -9535,6 +15475,21 @@
           <t>ETİLER                    MAHALLESİ GAZİLER CADDESİ NO:92  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G397" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H397" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
@@ -9558,6 +15513,21 @@
           <t xml:space="preserve"> ÇINARLI MAH. ANKARA ASFALTI CAD. NO: 15 İÇ KAPI NO: 065 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G398" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H398" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
@@ -9581,6 +15551,21 @@
           <t xml:space="preserve"> BEYAZEVLER MAH. 568 SK. NO: 7/1 GAZİEMİR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G399" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H399" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
@@ -9604,6 +15589,21 @@
           <t xml:space="preserve"> GÖKDERE MAH. GÖKDERE CAD. NO: 18 İÇ KAPI NO: Z1 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G400" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H400" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
@@ -9627,6 +15627,21 @@
           <t>EGEMENLİK MAHALLESİ 6016/4 SK. NO:6  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G401" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H401" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
@@ -9650,6 +15665,21 @@
           <t xml:space="preserve"> MİMAR SİNAN MAH. ALİ ÇETİNKAYA BUL. EMEKSEN NO: 34/1 İÇ KAPI NO: 43 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G402" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H402" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
@@ -9673,6 +15703,21 @@
           <t xml:space="preserve"> KÜÇÜK ÇİĞLİ MAH. 8708/1 SK. NO: 12A ÇİĞLİ / İZMİR  / </t>
         </is>
       </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G403" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H403" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
@@ -9696,6 +15741,21 @@
           <t>GÜRPINAR MAHALLESİ 7227 SOKAK NO:8/H B Apt. BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G404" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H404" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
@@ -9719,6 +15779,21 @@
           <t xml:space="preserve"> EGEMENLİK MAHALLESİ KEMALPAŞA  CADDE NO:258 /9 /- _ ADRES NO: 2981832484 OFİS VE İŞYERİ BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G405" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H405" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
@@ -9742,6 +15817,21 @@
           <t xml:space="preserve"> POSTACILAR MAHALLESİ 7651/1 SK.  NO: 27 D  BAYRAKLI/İZMİR  / </t>
         </is>
       </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G406" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H406" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
@@ -9765,6 +15855,21 @@
           <t xml:space="preserve"> MALTEPE MAH. 8090 SK. NO: 5A ÇİĞLİ / İZMİR  / </t>
         </is>
       </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G407" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H407" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
@@ -9788,6 +15893,21 @@
           <t xml:space="preserve"> KARACAOĞLAN MAH. 6159 SK. MEHMET EMİN ARSLAN İŞ MERKEZİ SİTESİ B BLOK  NO: 1H BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G408" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H408" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
@@ -9811,6 +15931,21 @@
           <t>ADALET MAHALLESİ MANAS  BULVARI FOLKART TOWERS BLOK  NO: 47B  İÇ KAPI NO:2601 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G409" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H409" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
@@ -9834,6 +15969,21 @@
           <t xml:space="preserve"> BAHÇELİEVLER MAH. ŞEHİT İBRAHİM ER SK. FERAH BLOK  NO: 109  İÇ KAPI NO: 1 KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G410" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H410" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
@@ -9857,6 +16007,21 @@
           <t>ALAÇATI MAH MAHALLESİ 16074 SK. NO: 4 A ÇEŞME           / İZMİR</t>
         </is>
       </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G411" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H411" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
@@ -9880,6 +16045,21 @@
           <t xml:space="preserve"> KEMALPAŞA CAD. NO:258  IŞIKKENT BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G412" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H412" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
@@ -9903,6 +16083,21 @@
           <t>AKDENİZ MAHALLESİ 1353 SK. TANER İŞHANI BLOK  NO: 1  İÇ KAPI NO: 802 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G413" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H413" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
@@ -9926,6 +16121,21 @@
           <t xml:space="preserve"> 8033 SK. NO:1  KUŞÇULAR KÖYÜ URLA            / İZMİR</t>
         </is>
       </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G414" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H414" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
@@ -9949,6 +16159,21 @@
           <t xml:space="preserve"> ERZENE MAH. 31 SK.  NO: 4-8B BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G415" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H415" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
@@ -9972,6 +16197,21 @@
           <t>EFELER                    MAHALLESİ FORBES SOKAK NO: 3 C/C BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G416" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H416" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
@@ -9995,6 +16235,21 @@
           <t>KÖY İÇİ MAHALLESİ 8064 SK. ALİ ŞENGÖZ BLOK  NO: 19A ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G417" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H417" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
@@ -10018,6 +16273,21 @@
           <t xml:space="preserve"> 40 SK. NO:44  GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G418" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H418" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
@@ -10041,6 +16311,21 @@
           <t xml:space="preserve"> 8028 SK NO:12  KUŞÇULAR KÖYÜ URLA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G419" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H419" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
@@ -10064,6 +16349,21 @@
           <t xml:space="preserve"> EGEMENLİK MAH. 6106/51 SK. SS.GERİ KAZ.KOOP. SİTESİ NO: 5/1 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G420" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H420" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
@@ -10087,6 +16387,21 @@
           <t xml:space="preserve"> YALI MAH. 144 SK. NO: 34/8 İÇ KAPI NO: 0 GÜZELBAHÇE / İZMİR  / </t>
         </is>
       </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G421" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H421" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
@@ -10110,6 +16425,21 @@
           <t>BAHÇELİEVLER MAHALLESİ 326 NO: 2  İÇ KAPI NO: 1 KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G422" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H422" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
@@ -10133,6 +16463,21 @@
           <t>ÇAMTEPE                   MAHALLESİ MİTHATPAŞA CADDESİ NO:177/A  NARLIDERE       / İZMİR</t>
         </is>
       </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G423" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H423" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
@@ -10156,6 +16501,21 @@
           <t xml:space="preserve"> ULAMIŞ MAH. 1432 SK. NO: 1/3 SEFERİHİSAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G424" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H424" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
@@ -10179,6 +16539,21 @@
           <t xml:space="preserve"> BOSTANLI MAH. CENGİZ KOCATOROS SK. NO: 45 İÇ KAPI NO: 4 KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G425" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H425" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
@@ -10202,6 +16577,21 @@
           <t xml:space="preserve"> TERSANE MAHALLESİ 1675 SK. NO: 113 B/ KARŞIYAKA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G426" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H426" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
@@ -10225,6 +16615,21 @@
           <t xml:space="preserve"> BOSTANLI MAH. CENGİZ TOPEL CAD. NO: 11 KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G427" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H427" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
@@ -10248,6 +16653,21 @@
           <t>HÜRRİYET MAHALLESİ CELAL BAYAR BULV.  KERESTECILER ÇARŞISI SİTESİ  NO: 67  MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G428" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H428" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
@@ -10271,6 +16691,21 @@
           <t>FATİH                     MAHALLESİ 1185 SOK. NO: 5D GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G429" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H429" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
@@ -10294,6 +16729,21 @@
           <t>CENNETOĞLU MAH MAHALLESİ YEŞİLLİK CAD NO: 228 -230/430 KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G430" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H430" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
@@ -10317,6 +16767,21 @@
           <t>ERGENE MAHALLESİ YÜZBAŞI İBRAHİM HAKKI CAD. ŞENAY BLOK NO:149A BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G431" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H431" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
@@ -10340,6 +16805,21 @@
           <t xml:space="preserve"> BOSTANLI MAHALLESİ 1811 SK.  NO: 42 A  KARŞIYAKA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G432" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H432" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
@@ -10363,6 +16843,21 @@
           <t xml:space="preserve"> KARACAOĞLAN MAHALLESİ 6236/2 SK.  NO: 7 A  BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F433" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G433" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H433" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
@@ -10386,6 +16881,21 @@
           <t>EGEMENLİK MAHALLESİ 6106/17 SOKAK NO: 17 BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G434" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H434" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
@@ -10409,6 +16919,21 @@
           <t>BALATÇIK                  MAHALLESİ 8901 SK. NO: 40/26 ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F435" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G435" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H435" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
@@ -10432,6 +16957,21 @@
           <t xml:space="preserve"> EVKA 3 MAHALLESİ 126/4 SK. PLATİN APT.  NO: 3 F  BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F436" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G436" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H436" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
@@ -10455,6 +16995,21 @@
           <t>MUSTAFA KEMAL             MAHALLESİ GAZETECİ YAZAR İSMAİL SİVRİ BULVARI NO: 349A BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G437" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H437" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
@@ -10478,6 +17033,21 @@
           <t>KARACAOĞLAN MAHALLESİ 6159 SOK. NO:1/D  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G438" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H438" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
@@ -10501,6 +17071,21 @@
           <t>UMURBEY                   MAHALLESİ 1501 SOKAK NO:3/Z1  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G439" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H439" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
@@ -10524,6 +17109,21 @@
           <t>YENİŞEHİR                 MAHALLESİ 1249 SOKAK NO:20 A KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F440" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G440" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H440" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
@@ -10547,6 +17147,21 @@
           <t xml:space="preserve"> YENİŞEHİR  1249  NO:20/K:1 D:1 KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G441" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H441" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
@@ -10570,6 +17185,21 @@
           <t xml:space="preserve"> KURUÇEŞME MAHALLESİ HOCA AHMET YESEVİ CAD.  NO: 222 C/C  BUCA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G442" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H442" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
@@ -10589,6 +17219,21 @@
         </is>
       </c>
       <c r="E443" t="inlineStr"/>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G443" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H443" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
@@ -10612,6 +17257,21 @@
           <t>DOĞANLAR                  MAHALLESİ 1497 SOKAK  KAMİL KAVAS SİTESİ  NO: 20A BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G444" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H444" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
@@ -10633,6 +17293,21 @@
       <c r="E445" t="inlineStr">
         <is>
           <t xml:space="preserve"> MANSUROĞLU MAH. 288/4 SK.  NO: 14  İÇ KAPI NO: 66 BAYRAKLI / İZMİR  / </t>
+        </is>
+      </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G445" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H445" t="inlineStr">
+        <is>
+          <t>İÇECEK GRUBU</t>
         </is>
       </c>
     </row>

--- a/Temizlenmiş Üye Bilgi Liste/Temizlenmiş Üye Bilgi Liste - 13. komite.xlsx
+++ b/Temizlenmiş Üye Bilgi Liste/Temizlenmiş Üye Bilgi Liste - 13. komite.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J383"/>
+  <dimension ref="A1:I383"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,11 +441,10 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="33" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="24" customWidth="1" min="6" max="6"/>
     <col width="19" customWidth="1" min="7" max="7"/>
     <col width="170" customWidth="1" min="8" max="8"/>
     <col width="103" customWidth="1" min="9" max="9"/>
-    <col width="20" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -476,7 +475,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Meslek Grubu Sayı</t>
+          <t>Meslek Grubu Numarası</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -492,11 +491,6 @@
       <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Tescilli Adresi</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Meslek Grubu</t>
         </is>
       </c>
     </row>
@@ -542,11 +536,6 @@
           <t>MANAVKUYU MAH. FATİH SULTAN MEHMET CAD. AKTUNA BLOK NO: 80H BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -590,11 +579,6 @@
           <t>KELER MAHALLESİ DELİ ÖMER NO:26 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J3" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -638,11 +622,6 @@
           <t>ARMUTLU 85.YIL CUMHURİYET MAHALLESİ İZMİR ANKARA CAD. NO: 79/1A KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -686,11 +665,6 @@
           <t>KEMALPAŞA OSB MAHALLESİ 500 SK. NO:26 SELİN BLOK KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -734,11 +708,6 @@
           <t>BAĞYURDU YENİ MAHALLESİ İZMİR ANKARA CAD. NO: 642 /4 KEMALPAŞA/İZMİR</t>
         </is>
       </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -782,11 +751,6 @@
           <t>MENDERES MAHALLESİ 373 SK. NO: 24 A/A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -830,11 +794,6 @@
           <t>HALKAPINAR MAHALLESİ 1558 SOKAK NO: 6 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -878,11 +837,6 @@
           <t>EFELER MAHALLESİ 301 SK. BARIŞ BLOK NO: 40 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -926,11 +880,6 @@
           <t>KASIMPAŞA MAH. KUVA-İ MİLLİYE CAD. NO: 24A MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -974,11 +923,6 @@
           <t>FEVZİÇAKMAK MAHALLESİ DEMİRCİ EFE SK. NO:53/A BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1022,11 +966,6 @@
           <t>19 MAYIS MAHALLESİ 5420 SOKAK NO:13 YEŞİLDERE KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1070,11 +1009,6 @@
           <t>BALATÇIK MAH. 8788 SK. NO: 14B ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1118,11 +1052,6 @@
           <t>GÜRPINAR MAH. 7056 SK. NO: 49 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1166,11 +1095,6 @@
           <t>MUSTAFA KEMAL MAH. 694/25 SK. NO: 5A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1214,11 +1138,6 @@
           <t>NERGİZ MAH. 1828 SK. ALP SEYMEN NO: 20B KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1262,11 +1181,6 @@
           <t>EVKA-3 MAHALLESİ 119/26 SOKAK NO:24/A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1310,11 +1224,6 @@
           <t>ATIFBEY MAHALLESİ ABDÜLHAMİT YAVUZ CAD. NO:63/A GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1358,11 +1267,6 @@
           <t>MANAVKUYU MAHALLESİ MUSTAFA KEMAL CAD. B BLOK NO: 151B BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1406,11 +1310,6 @@
           <t>ERGENE MAHALLESİ 555 SK. KAYA APT. NO: 64 C BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1454,11 +1353,6 @@
           <t>ZAFER MAH. 2351 SK. NO: 10A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1502,11 +1396,6 @@
           <t>GÖKSU MAH. 637/23 SK. NO: 4A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1550,11 +1439,6 @@
           <t>ALAÇATI MAHALLESİ 16006 SK. NO: 24Z ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1598,11 +1482,6 @@
           <t>85. YIL CUMHURİYET MAHALLESİ SANAYİ CADDESİ NO:99 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1646,11 +1525,6 @@
           <t>NAZARKÖY MAH. 4051 SK. NO: 3 İÇ KAPI NO: 1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1694,11 +1568,6 @@
           <t>KILIÇ REİS MAHALLESİ ŞÜKRÜ SARAÇOĞLU CADDESİ ŞENOL Apt. NO: 26 /1A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1742,11 +1611,6 @@
           <t>KEMALPAŞA OSB MAH. 37 SK. GIXOM TOBACCO BLOK NO: 4 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1790,11 +1654,6 @@
           <t>KARACAOĞLAN MAHALLESİ 6166 SOKAK C-D BLOK NO: 32D BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J28" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1838,11 +1697,6 @@
           <t>İSMET KAPTAN MAHALLESİ ANAFARTALAR CAD. NO: 789 B/789B KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J29" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1886,11 +1740,6 @@
           <t>ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 2601 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J30" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1934,11 +1783,6 @@
           <t>BOSTANLI MAHALLESİ 1811 SK. NO:4/A ELİF HANIM Apt. KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1982,11 +1826,6 @@
           <t>BOSTANLI MAH. 1820/1 SK. ŞÜKÜFE BAŞMAN NO: 1 İÇ KAPI NO: 1 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J32" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2030,11 +1869,6 @@
           <t>BOSTANLI MAH. İSMAİL SİVRİ SK. KETEN NO: 4A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J33" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2078,11 +1912,6 @@
           <t>GÖLCÜK MAH. 14005 SK. NO: 17A SEFERİHİSAR / İZMİR</t>
         </is>
       </c>
-      <c r="J34" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2126,11 +1955,6 @@
           <t>AKDENİZ MAH. CUMHURİYET BUL. ÇIRPICI İŞ HANI NO: 77 İÇ KAPI NO: 42 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J35" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2174,11 +1998,6 @@
           <t>MANAVKUYU MAHALLESİ YÜZBAŞI İBRAHİM HAKKI CAD. SAMI BEY 2 SİTESİ NO: 229/1C BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J36" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2222,11 +2041,6 @@
           <t>FATİH MAH. 1197 SK. E BLOK SİTESİ E BLOK NO: 7/3 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J37" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2270,11 +2084,6 @@
           <t>FATİH MAH. 1197 SK. E BLOK SİTESİ E BLOK NO: 7/3 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J38" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2318,11 +2127,6 @@
           <t>ALAÇATI MAH. 15064 SK. NO: 10E ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J39" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2366,11 +2170,6 @@
           <t>HÜRRİYET MAH. NAMIK KEMAL CAD. NO: 101A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J40" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2414,11 +2213,6 @@
           <t>GÖKDERE MAHALLESİ GÖKDERE CAD. NO: 12/3A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J41" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2462,11 +2256,6 @@
           <t>GÖKDERE MAHALLESİ GÖKDERE CAD. NO:44/2 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J42" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2510,11 +2299,6 @@
           <t>YENİDOĞAN MAH. GAZİLER CAD. NO: 230/1 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J43" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2558,11 +2342,6 @@
           <t>ERZENE MAHALLESİ FEVZİ ÇAKMAK CAD. NO:1/B BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J44" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2606,11 +2385,6 @@
           <t>KAZIM DİRİK MAHALLESİ SANAYİ CAD. NO:31 İÇ KAPI NO: Z6 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J45" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2654,11 +2428,6 @@
           <t>KEMALPAŞA OSB MAHALLESİ 9 SK. NO: 7 KEMALPAŞA/İZMİR</t>
         </is>
       </c>
-      <c r="J46" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2702,11 +2471,6 @@
           <t>ALTINTEPE MAH. ŞEHİT MURAT CAD. NO: 42A MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J47" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -2750,11 +2514,6 @@
           <t>GÖDENCE MAHALLESİ KURUÇEŞME (KÜME EVELR ) NO:39 SEFERİHİSAR / İZMİR</t>
         </is>
       </c>
-      <c r="J48" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -2798,11 +2557,6 @@
           <t>ALAÇATI MAHALLESİ NO:65/A 14000 SOK. ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J49" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -2846,11 +2600,6 @@
           <t>BAHÇELİEVLER MAH. CEVDET BİLSAY CAD. ALBOYACI NO: 89A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J50" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -2894,11 +2643,6 @@
           <t>KÜLTÜR MAHALLESİ TALATPAŞA BLV. GÖNÇ APT. NO: 12 A/12A KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J51" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -2942,11 +2686,6 @@
           <t>KEMALPAŞA MAH. PINAR CAD. NO: 80A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J52" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -2990,11 +2729,6 @@
           <t>MUSALLA MAHALLESİ İKİÇEŞMELİK (KÜME EVLER) NO:84/1 ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J53" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3038,11 +2772,6 @@
           <t>ADALET MAH. HAYDAR ALİYEV CAD. NO: 34/1A BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J54" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3086,11 +2815,6 @@
           <t>KONAK MAH. KESTELLİ CAD. NO: 2 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J55" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3134,11 +2858,6 @@
           <t>EGEMENLİK MAHALLESİ 6106/35 SOKAK NO: 2 A/0 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J56" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3182,11 +2901,6 @@
           <t>AKDENİZ MAH. AKDENİZ CAD. ANBA İŞHANI NO: 8A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J57" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3230,11 +2944,6 @@
           <t>YALI MAHALLESİ 6524 SOK. NO: 7/4 İÇ KAPI NO: 51 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J58" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3278,11 +2987,6 @@
           <t>YENİŞEHİR MAHALLESİ 1245 SOK. NO:15/H KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J59" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3326,11 +3030,6 @@
           <t>FATİH MAH. 1188/1 SK. NO: 1C GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J60" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3374,11 +3073,6 @@
           <t>MEVLANA MAHALLESİ 1776/23 SOKAK B BLOK NO: 2A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J61" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3422,11 +3116,6 @@
           <t>İMBATLI MAH. 6086 SK. NO: 8B KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J62" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3470,11 +3159,6 @@
           <t>ALAYBEY MAHALLESİ CEMAL GÜRSEL CADDESİ EGE Apt. NO: 68 A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J63" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3518,11 +3202,6 @@
           <t>ALAYBEY MAHALLESİ 1690 SK. NO: 109 A KARŞIYAKA/İZMİR</t>
         </is>
       </c>
-      <c r="J64" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3566,11 +3245,6 @@
           <t>BAĞYURDU YENİ MAHALLESİ HAYITLIK MEVKİİ KÜME EVLERİ NO: 1A DAİRE:1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J65" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3614,11 +3288,6 @@
           <t>İTOB OSB MAHALLESİ EKREM DEMİRTAŞ CAD. ENER Apt. NO: 22 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J66" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -3662,11 +3331,6 @@
           <t>EFELER MAH. FORBES SK. NO: 70 İÇ KAPI NO: 1 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J67" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -3710,11 +3374,6 @@
           <t>GÖRECE CUMHURİYET MAHALLESİ GÜLÇIRPI CAD. NO: 19 MENDERES/İZMİR</t>
         </is>
       </c>
-      <c r="J68" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -3758,11 +3417,6 @@
           <t>YALI MAH. 6523 SK. SOYAK MAVIŞEHIR KONUTLARI SİTESİ NO: 22 İÇ KAPI NO: 24 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J69" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -3806,11 +3460,6 @@
           <t>ALAÇATI MAHALLESİ 12012 SK. NO:28/1 ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J70" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -3854,11 +3503,6 @@
           <t>KÜLTÜR MAH. ŞEHİT NEVRES BUL. ECZACIBAŞI NO: 7 İÇ KAPI NO: 7 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J71" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -3902,11 +3546,6 @@
           <t>BAYRAKLI MAH. ANADOLU CAD. ECZACIBAŞI BLOK NO: 99/2 İÇ KAPI NO: 10 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J72" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -3950,11 +3589,6 @@
           <t>AKDENİZ MAH. CUMHURİYET BUL. NO: 120 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J73" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -3998,11 +3632,6 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: Z108 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J74" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -4046,11 +3675,6 @@
           <t>BAHRİYE ÜÇOK MAH. RÜŞTÜ ŞARDAĞ CAD. NO: 75 İÇ KAPI NO: 1 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J75" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -4094,11 +3718,6 @@
           <t>MUSTAFA KEMAL MAHALLESİ 694/25 SOK. NO:5/A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J76" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -4142,11 +3761,6 @@
           <t>ADALET MAHALLESİ ANADOLU CAD. NO: 41 /1/1901 BAYRAKLI/İZMİR</t>
         </is>
       </c>
-      <c r="J77" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -4190,11 +3804,6 @@
           <t>EFELER MAHALLESİ 305 SK. NO: 27 İÇ KAPI NO: 4 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J78" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -4238,11 +3847,6 @@
           <t>FIRAT MAHALLESİ 272 SOKAK PRESTIJ SİTESİ NO: 159C İÇ KAPI NO: C BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J79" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -4286,11 +3890,6 @@
           <t>BOSTANLI MAHALLESİ AHMET PENDİKLİ SK. NO:16 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J80" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -4334,11 +3933,6 @@
           <t>UMURBEY MAHALLESİ 1521 SOKAK NO:5/0 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J81" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -4382,11 +3976,6 @@
           <t>MANSUROĞLU MAHALLESİ 292 SOK. İNŞAAT BLOK NO: 11 İÇ KAPI NO: 14 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J82" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -4430,11 +4019,6 @@
           <t>ALSANCAK MAH. 1464 SK. NO: 71A İÇ KAPI NO: 71A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J83" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -4478,11 +4062,6 @@
           <t>NO:1 KIZKAPAN MEVKİİ, MUSALLA MAH. ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J84" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -4526,11 +4105,6 @@
           <t>GÜMÜLDÜR FEVZİ ÇAKMAK MAHALLESİ GAZİ MUSTAFA KEMAL BULVARI NO:154 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J85" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -4574,11 +4148,6 @@
           <t>DOĞANAY MAH. 9163 SK. NO: 37/1 İÇ KAPI NO: 4 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J86" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -4622,11 +4191,6 @@
           <t>GÜZELYALI MAHALLESİ MİTHATPAŞA CAD. NO: 933 /1/1 KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J87" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -4670,11 +4234,6 @@
           <t>ÖZGÜR MAHALLESİ 3915 SK. NO: 24 KARABAĞLAR/İZMİR</t>
         </is>
       </c>
-      <c r="J88" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -4718,11 +4277,6 @@
           <t>SALİH OMURTAK MAH. 9621 SK. NO: 19 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J89" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -4766,11 +4320,6 @@
           <t>ALAÇATI MAHALLESİ NO:2 ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J90" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -4814,11 +4363,6 @@
           <t>HÜRRİYET MAH. MENDERES CAD. NO: 345 İÇ KAPI NO: 3 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J91" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -4862,11 +4406,6 @@
           <t>ŞEMİKLER MAH. ORDU BUL. İSMAİL ONBAŞI BLOK NO: 196A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J92" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -4910,11 +4449,6 @@
           <t>KAZIM KARABEKİR MAHALLESİ 9022 SOKAK KERPEL BLOK NO: 5B KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J93" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -4958,11 +4492,6 @@
           <t>KEMALPAŞA OSB MAHALLESİ İZMİR KEMALPAŞA ASFALTI CAD. NO:42/1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J94" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -5006,11 +4535,6 @@
           <t>85. YIL CUMHURİYET MAHALLESİ SANAYİ CADDESİ NO:33 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J95" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -5054,11 +4578,6 @@
           <t>KEMALPAŞA OSB MAH. İZMİR ANKARA YOLU (ANSIZCA) KÜME EVLERİ NO: 357 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J96" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -5102,11 +4621,6 @@
           <t>NALDÖKEN MAHALLESİ ATATÜRK CADDESI NO:2/B BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J97" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -5150,11 +4664,6 @@
           <t>ADALET MAH. MANAS BUL. GÜREL İŞ MERKEZİ BLOK NO: 31A BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J98" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -5198,11 +4707,6 @@
           <t>ATATÜRK MAHALLESİ 909 SOKAK NO:16/A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J99" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -5246,11 +4750,6 @@
           <t>CAMİATİK MAHALLESİ YABANGÜLÜ SK. NO: 8 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J100" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -5294,11 +4793,6 @@
           <t>OSMANGAZİ MAHALLESİ 567/5 SOK. TURAN BLOK NO: 3 İÇ KAPI NO: 1 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J101" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -5342,11 +4836,6 @@
           <t>GÖKDERE MAH. CEYLAN SK. NO: 7A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J102" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -5390,11 +4879,6 @@
           <t>BAHAR MAH. ESKİİZMİR CAD. ÖZEL BOZYAKA BLOK NO: 144/1 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J103" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -5438,11 +4922,6 @@
           <t>EGEMENLİK MAHALLESİ 6125/1 SK. NO: 16 A BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J104" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -5486,11 +4965,6 @@
           <t>ÖRNEKKÖY MAH. 7505 SK. NO: 7A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J105" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -5534,11 +5008,6 @@
           <t>MANSUROĞLU MAHALLESİ ANKARA CAD. NO: 81/26 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J106" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -5582,11 +5051,6 @@
           <t>VALİ RAHMİ BEY MAHALLESİ ÖZMEN CADDESI NO:88/305 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J107" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -5630,11 +5094,6 @@
           <t>UMURBEY MAHALLESİ 1521 SOKAK NO:4/B ALSANCAK KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J108" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -5678,11 +5137,6 @@
           <t>ÇINARKÖY MAHALLESİ 5009 SK. NO: 5 N KEMALPAŞA/İZMİR</t>
         </is>
       </c>
-      <c r="J109" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -5726,11 +5180,6 @@
           <t>ALSANCAK MAHALLESİ 1469 SOKAK NO: 28 İÇ KAPI NO: 73 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J110" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -5774,11 +5223,6 @@
           <t>ALSANCAK MAH. 1469 SK. NO: 28 İÇ KAPI NO: 73 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J111" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -5822,11 +5266,6 @@
           <t>ALSANCAK MAH. 1469 SK. NO: 28 İÇ KAPI NO: 73 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J112" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -5870,11 +5309,6 @@
           <t>İTOB OSB MAH. İTOB ATATÜRK CAD. NO: 10 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J113" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -5918,11 +5352,6 @@
           <t>KEMALPAŞA MAHALLESİ 7093 SOKAK NO:7 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J114" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -5966,11 +5395,6 @@
           <t>UMURBEY MAHALLESİ 1521 SOKAK NO:4/B ALSANCAK KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J115" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -6014,11 +5438,6 @@
           <t>ÇINARLI MAHALLESİ ANKARA ASFALTI CADDESİ NO:15/391 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J116" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -6062,11 +5481,6 @@
           <t>ERZENE MAH. KAZIM KARABEKİR CAD. MELEK BLOK NO: 47B BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J117" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -6110,11 +5524,6 @@
           <t>ZAFER SB MAHALLESİ SADİ SK. NO: 6 GAZİEMİR/İZMİR</t>
         </is>
       </c>
-      <c r="J118" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -6158,11 +5567,6 @@
           <t>ŞİRİNKAPI MAH. YAVUZ SULTAN SELİM CAD. NO: 84A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J119" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -6206,11 +5610,6 @@
           <t>MANSUROĞLU MAHALLESİ ANKARA CAD. NO: 81/95 BAYRAKLI/İZMİR</t>
         </is>
       </c>
-      <c r="J120" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -6254,11 +5653,6 @@
           <t>MANSUROĞLU MAHALLESİ ANKARA CAD. NO:81/95 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J121" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -6302,11 +5696,6 @@
           <t>MEVLANA MAHALLESİ 1710/5 SOKAK NO:46/A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J122" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -6350,11 +5739,6 @@
           <t>ETİLER MAH. GAZİLER CAD. NO: 71 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J123" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -6398,11 +5782,6 @@
           <t>ATATÜRK MAHALLESİ ÇEŞME ASFALTI DÖRTYOL MEVKİİ NO:202 URLA/İZMİR</t>
         </is>
       </c>
-      <c r="J124" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -6446,11 +5825,6 @@
           <t>İSMET KAPTAN MAH. 1364 SK. KUTUCULAR İŞ MERKEZİ NO: 2 İÇ KAPI NO: 708 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J125" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -6494,11 +5868,6 @@
           <t>ETİLER MAHALLESİ 9 EYLÜL MEYDANI NO:13/A MEYDAN HAN BLOK KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J126" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -6542,11 +5911,6 @@
           <t>ILICA MAHALLESİ 5123 SOKAK NO:7/A ÇEŞME/İZMİR</t>
         </is>
       </c>
-      <c r="J127" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -6590,11 +5954,6 @@
           <t>ALAÇATI MAHALLESİ 16091 SK. NO:2 ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J128" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -6638,11 +5997,6 @@
           <t>FIRAT MAH. 294/2 SK. A BLOK NO: 7B İÇ KAPI NO: 20 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J129" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -6686,11 +6040,6 @@
           <t>19 MAYIS MAHALLESİ 5420 SOKAK NO:13 YEŞİLDERE / İZMİR</t>
         </is>
       </c>
-      <c r="J130" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -6734,11 +6083,6 @@
           <t>BAHÇELERARASI MAH. MİTHATPAŞA CAD. NO: 46 İÇ KAPI NO: Z21 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J131" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -6782,11 +6126,6 @@
           <t>ADALET MAH. 1586/7 SK. B BLOK NO: 4 İÇ KAPI NO: 9 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J132" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -6830,11 +6169,6 @@
           <t>KAZIMDİRİK MAH. 375/2 SK. NO: 2D BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J133" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -6878,11 +6212,6 @@
           <t>KONAK MAHALLESİ 877 SOKAK NO:6 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J134" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -6926,11 +6255,6 @@
           <t>MENDERES MAH. 156 SK. ATMACA NO: 40A İÇ KAPI NO: A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J135" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -6974,11 +6298,6 @@
           <t>GÜMÜŞPALA MAH. 7000 SK. NO: 74B BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J136" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -7022,11 +6341,6 @@
           <t>İTOB OSB MAHALLESİ 10025 SK. NO: 12/_ MENDERES/İZMİR</t>
         </is>
       </c>
-      <c r="J137" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -7070,11 +6384,6 @@
           <t>BİRGİ MAHALLESİ ÇEŞME YOLU CADDESİ NO:14 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J138" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -7118,11 +6427,6 @@
           <t>AKSOY MAHALLESİ GİRNE BLV. NO: 38E KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J139" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -7166,11 +6470,6 @@
           <t>EGEMENLİK MAHALLESİ AYDINLAR CAD. NO:87 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J140" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -7214,11 +6513,6 @@
           <t>ATATÜRK MAHALLESİ 850 SOKAK NO:14 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J141" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -7262,11 +6556,6 @@
           <t>ADALET MAHALLESİ MANAS BLV. NO: 12/2 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J142" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -7310,11 +6599,6 @@
           <t>KARACAOĞLAN MAHALLESİ KEMALPAŞA CAD. NO:285/Z025 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J143" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
@@ -7358,11 +6642,6 @@
           <t>DOĞANLAR MAHALLESİ 1580 SOKAK DEVLET TIYATROSU ATOLYESI SİTESİ NO: 25E BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J144" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
@@ -7406,11 +6685,6 @@
           <t>GAZİOSMANPAŞA MAH. MAHALLESİ 5479 SOKAK NO:28/1A MUHARREM ULU SİT. BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J145" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
@@ -7454,11 +6728,6 @@
           <t>YENİŞEHİR MAH. 1145/2 SK. NO: 30B KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J146" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
@@ -7502,11 +6771,6 @@
           <t>SEKİZ EYLÜL MAH. KİRAZLI CAD. NO: 54B İÇ KAPI NO: B KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J147" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
@@ -7550,11 +6814,6 @@
           <t>ERGENE MAHALLESİ 456 SOK. NO: 72B BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J148" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
@@ -7598,11 +6857,6 @@
           <t>ETİLER MAHALLESİ ANAFARTALAR CADDESİ NO: 898B KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J149" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
@@ -7646,11 +6900,6 @@
           <t>AKDENİZ MAHALLESİ 1342 SOKAK NO:15 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J150" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
@@ -7694,11 +6943,6 @@
           <t>YENİCE MAHALLESİ KAMANLI SOK. NO:85 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J151" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
@@ -7742,11 +6986,6 @@
           <t>YURDOĞLU MAHALLESİ 3948/1 SK. NO: 10 KARABAĞLAR/İZMİR</t>
         </is>
       </c>
-      <c r="J152" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
@@ -7790,11 +7029,6 @@
           <t>KARACAOĞLAN MAHALLESİ 6244 SOKAK NO:20/A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J153" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
@@ -7838,11 +7072,6 @@
           <t>ATATÜRK MAH. 2206 SK. NO: 20/1 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J154" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
@@ -7886,11 +7115,6 @@
           <t>29 EKİM MAHALLESİ 2231 SK. NO: 10/0 BUCA/İZMİR</t>
         </is>
       </c>
-      <c r="J155" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
@@ -7934,11 +7158,6 @@
           <t>KONAK MAHALLESİ ANAFARTALAR CD. NO: 150 İÇ KAPI NO: Z13 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J156" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
@@ -7982,11 +7201,6 @@
           <t>KEMALPAŞA OSB MAH. 24 SK. NO: 4 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J157" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
@@ -8030,11 +7244,6 @@
           <t>MANSUROĞLU MAHALLESİ 283/15 SOKAK NO:1/C BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J158" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
@@ -8078,11 +7287,6 @@
           <t>ŞEMİKLER MAHALLESİ 6214/1 SK. HIZIR EYUBOGLU APT BLOK NO: 12B KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J159" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
@@ -8126,11 +7330,6 @@
           <t>KEMALPAŞA OSB MAH. 29 SK. NO: 3 İÇ KAPI NO: 1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J160" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
@@ -8174,11 +7373,6 @@
           <t>GÜMÜLDÜR FEVZİ ÇAKMAK MAHALLESİ GAZİ MUSTAFA KEMAL PAŞA BLV. NO: 144 -A/-A MENDERES/İZMİR</t>
         </is>
       </c>
-      <c r="J161" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
@@ -8222,11 +7416,6 @@
           <t>ALİ FUAT CEBESOY MAH. 9503 SK. KARANFİL NO: 41 İÇ KAPI NO: 11 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J162" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
@@ -8270,11 +7459,6 @@
           <t>İTOB OSB MAH. 10005 SK. NO: 50 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J163" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
@@ -8318,11 +7502,6 @@
           <t>MANAVKUYU MAHALLESİ ŞEHİT PİLOT ÜST. TÜRKER AYDIN BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J164" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
@@ -8366,11 +7545,6 @@
           <t>FATİH MAHALLESİ 1188 SOKAK NO:11 SARNIÇ GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J165" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
@@ -8414,11 +7588,6 @@
           <t>KEMALPAŞA MAHALLESİ 7086 SOKAK NO:18 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J166" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
@@ -8462,11 +7631,6 @@
           <t>GÜMÜLDÜR FEVZİ ÇAKMAK MAH. GÜMÜLDÜR İZMİR CAD. GÜMÜLDÜR FEVZİ ÇAKMAK CAMİİ NO: 142D MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J167" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
@@ -8510,11 +7674,6 @@
           <t>İSMET İNÖNÜ MAHALLESİ 2060 SK. NO: 12/1 İÇ KAPI NO: 1 ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J168" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
@@ -8558,11 +7717,6 @@
           <t>DALYAN MAH. 4218 SK. NO: 5A ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J169" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
@@ -8606,11 +7760,6 @@
           <t>GÜLBAHÇE MAHALLESİ 12134 SK. NO: 2 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J170" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
@@ -8654,11 +7803,6 @@
           <t>YAKA MAHALLESİ ÇAY SOKAK NO: 25B URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J171" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
@@ -8702,11 +7846,6 @@
           <t>M.FEVZİ ÇAKMAK MAH. 4111 SK. ÖRNEK BATI KENT KONUT YAPI KOOP. NO: 8B URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J172" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
@@ -8750,11 +7889,6 @@
           <t>GÖLCÜKLER MAHALLESİ İSTASYON CAD. NO: 38 /1 MENDERES/İZMİR</t>
         </is>
       </c>
-      <c r="J173" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
@@ -8798,11 +7932,6 @@
           <t>GÜLYAKA MAH. ESKİİZMİR CAD. NO: 212E İÇ KAPI NO: E KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J174" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
@@ -8846,11 +7975,6 @@
           <t>BALATÇIK MAHALLESİ 8786/27 SK. NO:4 C BLOK ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J175" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
@@ -8894,11 +8018,6 @@
           <t>VATAN MAHALLESİ FARUK AKARSU CAD. NERGİZ Apt. NO: 27 C/C KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J176" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
@@ -8942,11 +8061,6 @@
           <t>ULAMIŞ MAH. İZMİR CAD. ATA AMBALAJ SİTESİ LOJMAN BLOK NO: 201-3 İÇ KAPI NO: 1 SEFERİHİSAR / İZMİR</t>
         </is>
       </c>
-      <c r="J177" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
@@ -8990,11 +8104,6 @@
           <t>MEHMET AKİF ERSOY MAHALLESİ KİRAZLI CAD. NO: 158 A KEMALPAŞA/İZMİR</t>
         </is>
       </c>
-      <c r="J178" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
@@ -9038,11 +8147,6 @@
           <t>FERAHLI MAH. 3466 SK. NO: 16/1A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J179" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
@@ -9086,11 +8190,6 @@
           <t>FERAHLI MAH. 3466 SK. NO: 16/1A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J180" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
@@ -9134,11 +8233,6 @@
           <t>GÜNEY MAHALLESİ 1121 SOKAK NO:19/1 / İZMİR</t>
         </is>
       </c>
-      <c r="J181" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
@@ -9182,11 +8276,6 @@
           <t>İTOB OSB MAHALLESİ 10014 SOKAK NO:2 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J182" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
@@ -9230,11 +8319,6 @@
           <t>KÜLTÜR MAH. 1392 SK. NO: 13D KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J183" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
@@ -9278,11 +8362,6 @@
           <t>İTOB OSB MAHALLESİ 10020 SOK. NO:34 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J184" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
@@ -9326,11 +8405,6 @@
           <t>KUŞÇULAR MAHALLESİ 8018/1 SK. NO: 39A URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J185" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
@@ -9374,11 +8448,6 @@
           <t>MEVLANA MAHALLESİ 1776 SOKAK NO:56 İÇ KAPI NO: A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J186" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
@@ -9422,11 +8491,6 @@
           <t>GÖRECE CUMHURİYET MAH. GÜLÇIRPI CAD. NO: 19 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J187" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
@@ -9470,11 +8534,6 @@
           <t>ALAÇATI MAHALLESİ 13010 SK. NO:8/5B ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J188" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
@@ -9518,11 +8577,6 @@
           <t>ÇOLAK İBRAHİM BEY MAHALLESİ İZMİR CAD. NO:132/A</t>
         </is>
       </c>
-      <c r="J189" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
@@ -9566,11 +8620,6 @@
           <t>YUNUS EMRE MAH. 4160 SK. NO: 28A KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J190" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
@@ -9614,11 +8663,6 @@
           <t>YAĞCILAR MAHALLESİ 9029 SK. NO: 8 URLA/İZMİR</t>
         </is>
       </c>
-      <c r="J191" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
@@ -9662,11 +8706,6 @@
           <t>EGEMENLİK MAH. 6106/35 SK. NO: 1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J192" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
@@ -9710,11 +8749,6 @@
           <t>YILDIRIM BEYAZIT MAH. FATİH CAD. NO: 43 İÇ KAPI NO: Z08 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J193" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
@@ -9758,11 +8792,6 @@
           <t>ADATEPE MAH. 15 SK. NO: 50 İÇ KAPI NO: 1 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J194" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
@@ -9806,11 +8835,6 @@
           <t>SEKİZ EYLÜL MAHALLESİ KİRAZLI CAD. NO:65/A KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J195" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
@@ -9854,11 +8878,6 @@
           <t>EVKA-3 MAHALLESİ 129/18 SOKAK NO:11/B BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J196" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
@@ -9902,11 +8921,6 @@
           <t>ALAÇATI MAHALLESİ HURMALI KÜME EVLERİ NO: 63 ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J197" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -9950,11 +8964,6 @@
           <t>KEMALPAŞA OSB MAHALLESİ 64 SK. NO: 7/1 KEMALPAŞA/İZMİR</t>
         </is>
       </c>
-      <c r="J198" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -9998,11 +9007,6 @@
           <t>ŞAŞAL MAH. 7904 SK. NO: 21 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J199" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -10046,11 +9050,6 @@
           <t>ERGENE MAHALLESİ 456 SOK. NO:135-135A-135/1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J200" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
@@ -10094,11 +9093,6 @@
           <t>TINAZTEPE MAHALLESİ EŞREFPAŞA CADDESİ NO: 237-241 İÇ KAPI NO: 6 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J201" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
@@ -10142,11 +9136,6 @@
           <t>ÇAMLIKULE MAH. 200/17 SK. NO: 25A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J202" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
@@ -10190,11 +9179,6 @@
           <t>AKIN SİMAV MAHALLESİ MİTHAT PAŞA CAD. NO:355 CANGÖZ BLOK İÇ KAPI NO: 11 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J203" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
@@ -10238,11 +9222,6 @@
           <t>DOKUZ EYLÜL MAH. 695 SK. NO: 9 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J204" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
@@ -10286,11 +9265,6 @@
           <t>MANSUROĞLU MAH. 1593/1 SK. LIDER CENTRIO BLOK NO: 2 İÇ KAPI NO: 50 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J205" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
@@ -10334,11 +9308,6 @@
           <t>ERGENE MAH. 531/1 SK. NO: 3A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J206" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
@@ -10382,11 +9351,6 @@
           <t>AKDENİZ MAHALLESİ CUMHURİYET BULVARI NO:99/9 MAHMUT RIZA IŞ MERKEZI Apt. KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J207" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
@@ -10430,11 +9394,6 @@
           <t>BAHRİYE ÜÇOK MAH. ATATÜRK BUL. BULVAR NO: 16/1A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J208" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -10478,11 +9437,6 @@
           <t>NERGİZ MAH. 6019 SK. KAHRAMAN NO: 16A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J209" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -10526,11 +9480,6 @@
           <t>YALI MAH. 6522 SK. NO: 3 İÇ KAPI NO: Z015 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J210" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -10574,11 +9523,6 @@
           <t>YENİKENT MAHALLESİ ÇEŞME URLA İZMİR ASFALTI CAD. NO: 143 URLA/İZMİR</t>
         </is>
       </c>
-      <c r="J211" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
@@ -10622,11 +9566,6 @@
           <t>HALKAPINAR MAHALLESİ 1203/11 SOKAK NO: 5-7 İÇ KAPI NO: 72 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J212" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
@@ -10670,11 +9609,6 @@
           <t>HALKAPINAR MAH. 1203/11 SK. NO: 5-7 İÇ KAPI NO: 72 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J213" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
@@ -10718,11 +9652,6 @@
           <t>MUSTAFA KEMAL MAH. 694 SK. NO: 35A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J214" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
@@ -10766,11 +9695,6 @@
           <t>KARACAOĞLAN MAHALLESİ 6166 SK. C-D BLOK NO: 32D BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J215" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
@@ -10814,11 +9738,6 @@
           <t>BAHÇELİEVLER MAHALLESİ 1851/4 SK. VARDAR BLOK NO: 2/2A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J216" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -10862,11 +9781,6 @@
           <t>ÖREN 75.YIL CUMHURİYET MAH. NİF ÇAYI SK. NO: 6 İÇ KAPI NO: 1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J217" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
@@ -10910,11 +9824,6 @@
           <t>ATAŞEHİR MAHALLESİ 8229/3 SK. NO: 17 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J218" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
@@ -10958,11 +9867,6 @@
           <t>ÇALIKUŞU MAH. HALİDE EDİP ADIVAR CAD. NO: 172 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J219" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -11006,11 +9910,6 @@
           <t>YENİŞEHİR MAHALLESİ 1019 SOKAK NO:1 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J220" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
@@ -11054,11 +9953,6 @@
           <t>GÖLCÜK MAHALLESİ 14005/1 SK. NO: 7A SEFERİHİSAR / İZMİR</t>
         </is>
       </c>
-      <c r="J221" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
@@ -11102,11 +9996,6 @@
           <t>GÜZELYALI MAHALLESİ MİTHATPAŞA CD. 1074/B P:4 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J222" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
@@ -11150,11 +10039,6 @@
           <t>HÜRRİYET MAH. 5113 SK. KERESTECILER ÇARŞISI SİTESİ NO: 62 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J223" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
@@ -11198,11 +10082,6 @@
           <t>ZAFER MAHALLESİ TURGUT ÖZAL CAD. NO:102 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J224" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
@@ -11246,11 +10125,6 @@
           <t>HÜRRİYET MAH. MENDERES CAD. NO: 277B İÇ KAPI NO: B BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J225" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
@@ -11294,11 +10168,6 @@
           <t>KAZIMDİRİK MAH. 364/11 SK. NO: 1/3V BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J226" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -11342,11 +10211,6 @@
           <t>ÇINARLI MAHALLESİ 1587 SK. NO: 2 -6/2103 KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J227" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -11390,11 +10254,6 @@
           <t>KEMALPAŞA MAHALLESİ 7405 SK. NO: 4 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J228" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
@@ -11438,11 +10297,6 @@
           <t>KARACAOĞLAN MAHALLESİ 6169 SK. NO: 6 /11 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J229" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
@@ -11486,11 +10340,6 @@
           <t>ADALET MAHALLESİ ŞEHİT POLİS FETİH SEKİN CAD. NO:6/193 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J230" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
@@ -11534,11 +10383,6 @@
           <t>KÜLTÜR MAHALLESİ İTALYA SOKAK NO:22/B KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J231" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
@@ -11582,11 +10426,6 @@
           <t>UMURBEY MAHALLESİ LİMAN CADDESİ NO:38/1 ALSANCAK KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J232" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
@@ -11630,11 +10469,6 @@
           <t>HALİLBEYLİ OSB MAH. NİF CAD. NO: 19 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J233" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
@@ -11678,11 +10512,6 @@
           <t>KEMALPAŞA OSB MAHALLESİ 24/1 SK. NO:5 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J234" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
@@ -11726,11 +10555,6 @@
           <t>YENİŞEHİR MAH. 1145/4 SK. NO: 11D KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J235" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
@@ -11774,11 +10598,6 @@
           <t>DEDEBAŞI MAH. ANADOLU CAD. NO: 507B KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J236" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
@@ -11822,11 +10641,6 @@
           <t>GAZİ MAH. 28/26 SK. NO: 5A GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J237" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
@@ -11870,11 +10684,6 @@
           <t>İTOB OSB MAHALLESİ 10024 SK. NO:7 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J238" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
@@ -11918,11 +10727,6 @@
           <t>RÜSTEM MAHALLESİ HUZUR SOKAK NO: 23 /1/1 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J239" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
@@ -11966,11 +10770,6 @@
           <t>GÖKSU MAH. 695/5 SK. NO: 3A İÇ KAPI NO: A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J240" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
@@ -12014,11 +10813,6 @@
           <t>KAZIMDİRİK MAH. KURTULUŞ CAD. ÖZKOÇ BLOK NO: 11C BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J241" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
@@ -12062,11 +10856,6 @@
           <t>KARACAOĞLAN MAHALLESİ 6171/1 SK. NO:2/12 IŞIKKENT BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J242" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
@@ -12110,11 +10899,6 @@
           <t>KARACAOĞLAN MAHALLESİ 6165 SOKAK NO:6/E BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J243" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
@@ -12158,11 +10942,6 @@
           <t>ALİ FUAT CEBESOY MAHALLESİ 9170/11 SK. NO: 4A KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J244" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
@@ -12206,11 +10985,6 @@
           <t>KOZAĞAÇ MAH. 232 SK. NO: 4 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J245" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
@@ -12254,11 +11028,6 @@
           <t>GÖRECE CUMHURİYET MAH. MİTHATPAŞA CAD. 2A1 BLOK NO: 2 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J246" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
@@ -12302,11 +11071,6 @@
           <t>İNÖNÜ MAH. 672 SK. NO: 89A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J247" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
@@ -12350,11 +11114,6 @@
           <t>GÜMÜLDÜR CUMHURİYET MAH. SEVGİ CAD. NO: 434 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J248" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
@@ -12398,11 +11157,6 @@
           <t>16 EYLÜL MAHALLESİ 3001 SK. NO: 24/4 ÇEŞME/İZMİR</t>
         </is>
       </c>
-      <c r="J249" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
@@ -12446,11 +11200,6 @@
           <t>OSMANGAZİ MAH. 567/3 SK. BERKER NO: 1A BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J250" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
@@ -12494,11 +11243,6 @@
           <t>BOĞAZİÇİ MAH. 2203 SK. NO: 3 İÇ KAPI NO: 4 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J251" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
@@ -12542,11 +11286,6 @@
           <t>KAZIM DİRİK MAHALLESİ 225 SK. NO:12/A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J252" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
@@ -12590,11 +11329,6 @@
           <t>AKDENİZ MAHALLESİ ŞEHİT FETHİBEY CADDESİ NO:55 HERİS TOWER BLOK İÇ KAPI NO: 091 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J253" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
@@ -12638,11 +11372,6 @@
           <t>MEHMET ALİ AKMAN MAHALLESİ İNÖNÜ CAD. NO: 658 C/0 KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J254" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
@@ -12686,11 +11415,6 @@
           <t>REİS MAHALLESİ ORDU CAD. NO: 143 A/A KARABAĞLAR/İZMİR</t>
         </is>
       </c>
-      <c r="J255" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
@@ -12734,11 +11458,6 @@
           <t>REİS MAHALLESİ ŞÜKRÜ KARADUMAN CAD. NO: 47 A/A KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J256" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
@@ -12782,11 +11501,6 @@
           <t>KONAK MAHALLESİ 855 SOKAK NO: 34 İÇ KAPI NO: MÜSTAKİL KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J257" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
@@ -12830,11 +11544,6 @@
           <t>GÜZELYALI MAHALLESİ 40 SOKAK NO: 53C İÇ KAPI NO: C KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J258" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
@@ -12878,11 +11587,6 @@
           <t>ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 3405 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J259" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
@@ -12926,11 +11630,6 @@
           <t>KUŞÇULAR MAHALLESİ 8015/2 NO:8/1 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J260" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
@@ -12974,11 +11673,6 @@
           <t>KUŞÇULAR MAHALLESİ 8015/2 NO:8/2 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J261" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
@@ -13022,11 +11716,6 @@
           <t>MENDERES MAHALLESİ BÜYÜK MENDERES CAD. NO:129/A GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J262" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
@@ -13070,11 +11759,6 @@
           <t>ADALET MAHALLESİ MANAS BUL. FOLKART TOWERS BLOK NO: 47B İÇ KAPI NO:2601 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J263" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
@@ -13118,11 +11802,6 @@
           <t>GÜNEY MAHALLESİ 1159 SOKAK NO:38 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J264" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
@@ -13166,11 +11845,6 @@
           <t>GÜZELYALI MAHALLESİ MİTHATPAŞA CD. NO:1056/A/A ÇINAR Apt. KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J265" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
@@ -13214,11 +11888,6 @@
           <t>EGEMENLİK MAH. 6106/17 SK. NO: 17 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J266" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
@@ -13262,11 +11931,6 @@
           <t>AYDIN MAHALLESİ 4328 SK. NO: 33/Z1 KARABAĞLAR/İZMİR</t>
         </is>
       </c>
-      <c r="J267" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
@@ -13310,11 +11974,6 @@
           <t>CAMİKEBİR MAH. SANAYİ 7 SK. NO: 7/3 SEFERİHİSAR / İZMİR</t>
         </is>
       </c>
-      <c r="J268" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
@@ -13358,11 +12017,6 @@
           <t>MANSUROĞLU MAHALLESİ 286/3 SOK. NO: 14 B/0 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J269" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
@@ -13406,11 +12060,6 @@
           <t>İTOB OSB MAHALLESİ EKREM DEMİRTAŞ CAD. NO: 20 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J270" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
@@ -13454,11 +12103,6 @@
           <t>SIĞACIK MAHALLESİ ESKİ SIĞACIK YOLU CAD. NO: 4 B SEFERİHİSAR / İZMİR</t>
         </is>
       </c>
-      <c r="J271" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
@@ -13502,11 +12146,6 @@
           <t>VALİ RAHMİ BEY MAHALLESİ 110 SK. NO:1 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J272" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
@@ -13550,11 +12189,6 @@
           <t>KEMALPAŞA OSB MAHALLESİ GAZİ BULVARI DİMES BLOK NO: 181 İÇ KAPI NO: 1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J273" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
@@ -13598,11 +12232,6 @@
           <t>ADALET MAHALLESİ ANADOLU CADDESİ MEGAPOL TOWER BLOK NO: 41 İÇ KAPI NO: 081 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J274" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
@@ -13646,11 +12275,6 @@
           <t>İSMET KAPTAN MAHALLESİ ŞEHİT NEVRES BULVARI NO:10 DEREN PLAZA BLOK İÇ KAPI NO: 11 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J275" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
@@ -13694,11 +12318,6 @@
           <t>ALSANCAK MAH. KIBRIS ŞEHİTLERİ CAD. PARK DEDEMAN OTEL NO: 140 İÇ KAPI NO: 140 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J276" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
@@ -13742,11 +12361,6 @@
           <t>KARACAOĞLAN MAHALLESİ KEMALPAŞA CADDESI İZOTAŞ SİT. NO: 285/Z024 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J277" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
@@ -13790,11 +12404,6 @@
           <t>BAHARİYE MAH. HİDAYET ERZEYBEK CAD. NO:36 F KARŞIYAKA/İZMİR</t>
         </is>
       </c>
-      <c r="J278" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
@@ -13838,11 +12447,6 @@
           <t>ALAÇATI MAH. 12012 SK. NO: 5 ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J279" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
@@ -13886,11 +12490,6 @@
           <t>İTOB OSB MAHALLESİ 10017 SK. NO: 7 MENDERES/İZMİR</t>
         </is>
       </c>
-      <c r="J280" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
@@ -13934,11 +12533,6 @@
           <t>İTOB OSB MAH. 10005 SK. GÜVEN ER KIMYA NO: 20 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J281" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
@@ -13982,11 +12576,6 @@
           <t>KONAK MAHALLESİ DR. FAİK MUHİTTİN ADAM CAD. ULUSOY APT. NO: 18 A KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J282" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
@@ -14030,11 +12619,6 @@
           <t>YUNUS EMRE MAH. 7408/6 SK. SARDALAR DIŞ TİC.LTD.ŞTİ. SİTESİ NO: 38A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J283" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
@@ -14078,11 +12662,6 @@
           <t>DOĞANLAR MAH. 1574/4 SK. NO: 5C BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J284" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
@@ -14126,11 +12705,6 @@
           <t>NERGİZ MAH. 6003 SK. NO: 49A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J285" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
@@ -14174,11 +12748,6 @@
           <t>ÇINARLI MAH. OZAN ABAY CAD. EGEPERLA NO: 8 İÇ KAPI NO: 218 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J286" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
@@ -14222,11 +12791,6 @@
           <t>ZEYTİNLİK MAHALLESİ 1140 SOKAK NO:4 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J287" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
@@ -14270,11 +12834,6 @@
           <t>MEVLANA MAHALLESİ 1710/5 SK. NO: 5 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J288" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
@@ -14318,11 +12877,6 @@
           <t>YENİGÜN MAHALLESİ 280 SOKAK B BLOK NO: 6BB BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J289" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
@@ -14366,11 +12920,6 @@
           <t>KARACAOĞLAN MAHALLESİ 6170 SOK. NO:15/C IŞIKKENT BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J290" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
@@ -14414,11 +12963,6 @@
           <t>BADEMLER MAH. 15050 SK. NO: 54/1 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J291" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
@@ -14462,11 +13006,6 @@
           <t>NAZARKÖY MAHALLESİ SAVANDA KURUDERE YOLU KÜME EVLERİ 18526839 SİTESİ NO:1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J292" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
@@ -14510,11 +13049,6 @@
           <t>KONAK MAHALLESİ 852 SOKAK KEMER PLAZA BLOK NO: 2C KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J293" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
@@ -14558,11 +13092,6 @@
           <t>KEMALPAŞA MAHALLESİ KEMALPAŞA CAD. NO: 262 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J294" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
@@ -14606,11 +13135,6 @@
           <t>KAZIM DİRİK MAHALLESİ GEDİZ CAD. NO:15/E ÖZKANLAR MURAT 5-A Apt. BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J295" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
@@ -14654,11 +13178,6 @@
           <t>UZUNDERE MAHALLESİ ESKİİZMİR CADDESİ NO:898/1 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J296" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
@@ -14702,11 +13221,6 @@
           <t>MAVİŞEHİR MAHALLESİ CAHER DUDAYEV BULVARI NO:40/304 A APT. KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J297" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
@@ -14750,11 +13264,6 @@
           <t>NALDÖKEN MAHALLESİ HACILARKIRI CADDESİ NO: 7/1D BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J298" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
@@ -14798,11 +13307,6 @@
           <t>ZAFER MAHALLESİ 2371 SOKAK NO: 11/1 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J299" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
@@ -14846,11 +13350,6 @@
           <t>ADALET MAH. MANAS BUL. NO: 39 İÇ KAPI NO: 2511 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J300" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
@@ -14894,11 +13393,6 @@
           <t>YEŞİLOVA MAHALLESİ 4032 SOKAK NO:18/B BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J301" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
@@ -14942,11 +13436,6 @@
           <t>KOCATEPE MAHALLESİ 558 SOKAK NO: 4 B/B KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J302" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
@@ -14990,11 +13479,6 @@
           <t>ÇINARLI MAHALLESİ 1572 SOKAK NO:33 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J303" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
@@ -15038,11 +13522,6 @@
           <t>KEMALPAŞA MAH. 7405 SK. NO: 4 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J304" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
@@ -15086,11 +13565,6 @@
           <t>POLİGON MAHALLESİ İNÖNÜ CAD. NO:705/B İÇ KAPI NO: B 6. SANAYİ SİTESİ KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J305" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
@@ -15134,11 +13608,6 @@
           <t>KÜÇÜK ÇİĞLİ MAHALLESİ ANADOLU CAD. NO: 1221A ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J306" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
@@ -15182,11 +13651,6 @@
           <t>ETİLER MAHALLESİ GAZİLER CADDESİ NO: 78C İÇ KAPI NO: C KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J307" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
@@ -15230,11 +13694,6 @@
           <t>ÇAMLIPINAR MAHALLESİ 293/33 SK. NO: 12A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J308" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
@@ -15278,11 +13737,6 @@
           <t>KEMALPAŞA MAHALLESİ 7086/4 SK NO:7/C BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J309" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
@@ -15326,11 +13780,6 @@
           <t>EVKA-3 MAHALLESİ 129/13 SOKAK NO:21 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J310" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
@@ -15374,11 +13823,6 @@
           <t>ERZENE MAHALLESİ 48 SK. MUSTAFA SARCAN SİTESİ NO: 5 İÇ KAPI NO: 1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J311" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
@@ -15422,11 +13866,6 @@
           <t>CÜNEYTBEY MAH. TAN SK. NO: 7B MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J312" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
@@ -15470,11 +13909,6 @@
           <t>İNÖNÜ MAHALLESİ MERYEM ANA CAD. NO:92/A GÜMÜLDÜR MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J313" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
@@ -15518,11 +13952,6 @@
           <t>İNCİRALTI MAHALLESİ YILDIZ SOKAK NO:160 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J314" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
@@ -15566,11 +13995,6 @@
           <t>KÜLTÜR MAH. ŞEHİT NEVRES BUL. ECZACIBAŞI NO: 7 İÇ KAPI NO: 7 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J315" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
@@ -15614,11 +14038,6 @@
           <t>İNCİRALTI MAHALLESİ YILDIZ SOKAK NO:160 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J316" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
@@ -15662,11 +14081,6 @@
           <t>İSMETPAŞA MAHALLESİ 6057 SOK. NO:3 ALAÇATI ÇEŞME/İZMİR</t>
         </is>
       </c>
-      <c r="J317" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
@@ -15710,11 +14124,6 @@
           <t>AKDENİZ MAHALLESİ CUMHURİYET BLV. NO: 45/7 KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J318" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
@@ -15758,11 +14167,6 @@
           <t>YILDIRIM BEYAZIT MAH. 5119 SK. NO: 46A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J319" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
@@ -15806,11 +14210,6 @@
           <t>CUMHURİYET MAHALLESİ MİTHATPAŞA CADDESİ NO:2A/14 GÖRECE MENDERES/İZMİR</t>
         </is>
       </c>
-      <c r="J320" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
@@ -15854,11 +14253,6 @@
           <t>GÖRECE CUMHURİYET MAHALLESİ MİTHATPAŞA CAD. NO: 2A/14 GÖRECE MENDERES/İZMİR</t>
         </is>
       </c>
-      <c r="J321" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
@@ -15902,11 +14296,6 @@
           <t>GÜNALTAY MAH. ESKİİZMİR CAD. AÇELYE NO: 413C KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J322" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
@@ -15950,11 +14339,6 @@
           <t>METİN OKTAY MAHALLESİ 52/9 SK. NO:41/B KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J323" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
@@ -15998,11 +14382,6 @@
           <t>MANAVKUYU MAH. 236 SK. FERHAT BLOK NO: 3D BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J324" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
@@ -16046,11 +14425,6 @@
           <t>KEMALPAŞA OSB MAH. 529 SK. NO: 14 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J325" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
@@ -16094,11 +14468,6 @@
           <t>FAİK PASA MAHALLESİ ANAFARTALAR CADDESİ NO:858 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J326" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
@@ -16142,11 +14511,6 @@
           <t>KEMALPAŞA OSB MAHALLESİ 41 SOKAK NO:3 ULUCAK KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J327" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
@@ -16190,11 +14554,6 @@
           <t>ÖRNEKKÖY MAHALLESİ BAŞ PEHLİVAN KARAALİ CADDESİ NO:12/A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J328" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
@@ -16238,11 +14597,6 @@
           <t>KEMALPAŞA OSB MAHALLESİ İZMİR CAD. NO: 87 İÇ KAPI NO: 1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J329" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
@@ -16286,11 +14640,6 @@
           <t>KÖY İÇİ MAHALLESİ 8054 SK. NO: 22 A ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J330" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
@@ -16334,11 +14683,6 @@
           <t>ÖZBEK MAHALLESİ 6115 SK. NO: 10/1 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J331" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
@@ -16382,11 +14726,6 @@
           <t>KEMALPAŞA MAHALLESİ PINAR CAD. NO: 89/ BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J332" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
@@ -16430,11 +14769,6 @@
           <t>BAHRİYE ÜÇOK MAH. ATATÜRK BUL. HAKYEMEZ BLOK NO: 42A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J333" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
@@ -16478,11 +14812,6 @@
           <t>ADALET MAHALLESİ 1594/9 SOK. NO:63/A BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J334" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
@@ -16526,11 +14855,6 @@
           <t>YENİKURUDERE MAHALLESİ YENİ KURUDERE YOLU ( KÜME EVLER ) 18592338 SİT. NO: 97 KEMALPAŞA/İZMİR</t>
         </is>
       </c>
-      <c r="J335" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
@@ -16574,11 +14898,6 @@
           <t>KELER MAHALLESİ DELİ ÖMER NO:26 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J336" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
@@ -16622,11 +14941,6 @@
           <t>ÖRNEKKÖY MAHALLESİ KEMALPAŞA CADDESI NO:9 DAİRE:1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J337" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
@@ -16670,11 +14984,6 @@
           <t>GÜRPINAR MAH. 7004 SK. NO: 47 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J338" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
@@ -16718,11 +15027,6 @@
           <t>EGEMENLİK MAHALLESİ 6071 SOKAK NO: 4 A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J339" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
@@ -16766,11 +15070,6 @@
           <t>ZAFER MAHALLESİ 2360 SK. NO: 55 /1 BUCA/İZMİR</t>
         </is>
       </c>
-      <c r="J340" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
@@ -16814,11 +15113,6 @@
           <t>ETİLER MAHALLESİ GAZİLER CADDESİ NO:92 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J341" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
@@ -16862,11 +15156,6 @@
           <t>ÇINARLI MAH. ANKARA ASFALTI CAD. NO: 15 İÇ KAPI NO: 065 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J342" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
@@ -16910,11 +15199,6 @@
           <t>BEYAZEVLER MAH. 568 SK. NO: 7/1 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J343" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
@@ -16958,11 +15242,6 @@
           <t>GÖKDERE MAH. GÖKDERE CAD. NO: 18 İÇ KAPI NO: Z1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J344" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
@@ -17006,11 +15285,6 @@
           <t>EGEMENLİK MAHALLESİ 6016/4 SK. NO:6 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J345" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
@@ -17054,11 +15328,6 @@
           <t>MİMAR SİNAN MAH. ALİ ÇETİNKAYA BUL. EMEKSEN NO: 34/1 İÇ KAPI NO: 43 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J346" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
@@ -17102,11 +15371,6 @@
           <t>KÜÇÜK ÇİĞLİ MAH. 8708/1 SK. NO: 12A ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J347" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
@@ -17150,11 +15414,6 @@
           <t>GÜRPINAR MAHALLESİ 7227 SOKAK NO:8/H B Apt. BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J348" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
@@ -17198,11 +15457,6 @@
           <t>EGEMENLİK MAHALLESİ KEMALPAŞA CADDE NO:258 /9 /- _ ADRES NO: 2981832484 OFİS VE İŞYERİ BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J349" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
@@ -17246,11 +15500,6 @@
           <t>POSTACILAR MAHALLESİ 7651/1 SK. NO: 27 D BAYRAKLI/İZMİR</t>
         </is>
       </c>
-      <c r="J350" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
@@ -17294,11 +15543,6 @@
           <t>MALTEPE MAH. 8090 SK. NO: 5A ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J351" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
@@ -17342,11 +15586,6 @@
           <t>KARACAOĞLAN MAH. 6159 SK. MEHMET EMİN ARSLAN İŞ MERKEZİ SİTESİ B BLOK NO: 1H BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J352" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
@@ -17390,11 +15629,6 @@
           <t>ADALET MAHALLESİ MANAS BULVARI FOLKART TOWERS BLOK NO: 47B İÇ KAPI NO:2601 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J353" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
@@ -17438,11 +15672,6 @@
           <t>BAHÇELİEVLER MAH. ŞEHİT İBRAHİM ER SK. FERAH BLOK NO: 109 İÇ KAPI NO: 1 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J354" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
@@ -17486,11 +15715,6 @@
           <t>ALAÇATI MAH MAHALLESİ 16074 SK. NO: 4 A ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J355" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
@@ -17534,11 +15758,6 @@
           <t>AKDENİZ MAHALLESİ 1353 SK. TANER İŞHANI BLOK NO: 1 İÇ KAPI NO: 802 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J356" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
@@ -17582,11 +15801,6 @@
           <t>ERZENE MAH. 31 SK. NO: 4-8B BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J357" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
@@ -17630,11 +15844,6 @@
           <t>EFELER MAHALLESİ FORBES SOKAK NO: 3 C/C BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J358" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
@@ -17678,11 +15887,6 @@
           <t>KÖY İÇİ MAHALLESİ 8064 SK. ALİ ŞENGÖZ BLOK NO: 19A ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J359" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
@@ -17726,11 +15930,6 @@
           <t>EGEMENLİK MAH. 6106/51 SK. SS.GERİ KAZ.KOOP. SİTESİ NO: 5/1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J360" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
@@ -17774,11 +15973,6 @@
           <t>YALI MAH. 144 SK. NO: 34/8 İÇ KAPI NO: 0 GÜZELBAHÇE / İZMİR</t>
         </is>
       </c>
-      <c r="J361" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
@@ -17822,11 +16016,6 @@
           <t>BAHÇELİEVLER MAHALLESİ 326 NO: 2 İÇ KAPI NO: 1 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J362" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
@@ -17870,11 +16059,6 @@
           <t>ÇAMTEPE MAHALLESİ MİTHATPAŞA CADDESİ NO:177/A NARLIDERE / İZMİR</t>
         </is>
       </c>
-      <c r="J363" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
@@ -17918,11 +16102,6 @@
           <t>ULAMIŞ MAH. 1432 SK. NO: 1/3 SEFERİHİSAR / İZMİR</t>
         </is>
       </c>
-      <c r="J364" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
@@ -17966,11 +16145,6 @@
           <t>BOSTANLI MAH. CENGİZ KOCATOROS SK. NO: 45 İÇ KAPI NO: 4 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J365" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
@@ -18014,11 +16188,6 @@
           <t>TERSANE MAHALLESİ 1675 SK. NO: 113 B/ KARŞIYAKA/İZMİR</t>
         </is>
       </c>
-      <c r="J366" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
@@ -18062,11 +16231,6 @@
           <t>BOSTANLI MAH. CENGİZ TOPEL CAD. NO: 11 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J367" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
@@ -18110,11 +16274,6 @@
           <t>HÜRRİYET MAHALLESİ CELAL BAYAR BULV. KERESTECILER ÇARŞISI SİTESİ NO: 67 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J368" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
@@ -18158,11 +16317,6 @@
           <t>FATİH MAHALLESİ 1185 SOK. NO: 5D GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J369" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
@@ -18206,11 +16360,6 @@
           <t>CENNETOĞLU MAH MAHALLESİ YEŞİLLİK CAD NO: 228 -230/430 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J370" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
@@ -18254,11 +16403,6 @@
           <t>ERGENE MAHALLESİ YÜZBAŞI İBRAHİM HAKKI CAD. ŞENAY BLOK NO:149A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J371" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
@@ -18302,11 +16446,6 @@
           <t>BOSTANLI MAHALLESİ 1811 SK. NO: 42 A KARŞIYAKA/İZMİR</t>
         </is>
       </c>
-      <c r="J372" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
@@ -18350,11 +16489,6 @@
           <t>KARACAOĞLAN MAHALLESİ 6236/2 SK. NO: 7 A BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J373" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
@@ -18398,11 +16532,6 @@
           <t>EGEMENLİK MAHALLESİ 6106/17 SOKAK NO: 17 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J374" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
@@ -18446,11 +16575,6 @@
           <t>BALATÇIK MAHALLESİ 8901 SK. NO: 40/26 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J375" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
@@ -18494,11 +16618,6 @@
           <t>EVKA 3 MAHALLESİ 126/4 SK. PLATİN APT. NO: 3 F BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J376" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
@@ -18542,11 +16661,6 @@
           <t>MUSTAFA KEMAL MAHALLESİ GAZETECİ YAZAR İSMAİL SİVRİ BULVARI NO: 349A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J377" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
@@ -18590,11 +16704,6 @@
           <t>KARACAOĞLAN MAHALLESİ 6159 SOK. NO:1/D BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J378" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
@@ -18638,11 +16747,6 @@
           <t>UMURBEY MAHALLESİ 1501 SOKAK NO:3/Z1 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J379" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
@@ -18686,11 +16790,6 @@
           <t>YENİŞEHİR MAHALLESİ 1249 SOKAK NO:20 A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J380" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
@@ -18734,11 +16833,6 @@
           <t>KURUÇEŞME MAHALLESİ HOCA AHMET YESEVİ CAD. NO: 222 C/C BUCA/İZMİR</t>
         </is>
       </c>
-      <c r="J381" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
@@ -18782,11 +16876,6 @@
           <t>DOĞANLAR MAHALLESİ 1497 SOKAK KAMİL KAVAS SİTESİ NO: 20A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J382" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
@@ -18828,11 +16917,6 @@
       <c r="I383" s="2" t="inlineStr">
         <is>
           <t>MANSUROĞLU MAH. 288/4 SK. NO: 14 İÇ KAPI NO: 66 BAYRAKLI / İZMİR</t>
-        </is>
-      </c>
-      <c r="J383" s="2" t="inlineStr">
-        <is>
-          <t>13 - İÇECEK GRUBU</t>
         </is>
       </c>
     </row>
